--- a/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
+++ b/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\CF4W\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -15634,7 +15634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="3653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4951" uniqueCount="3653">
   <si>
     <t>Count</t>
   </si>
@@ -29734,8 +29734,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35532,7 +35532,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
       <selection activeCell="B1" pane="topRight" sqref="B1:C2"/>

--- a/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
+++ b/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -15634,7 +15634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4951" uniqueCount="3653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4955" uniqueCount="3646">
   <si>
     <t>Count</t>
   </si>
@@ -25096,18 +25096,6 @@
     <t>1;1;1;1;1;1</t>
   </si>
   <si>
-    <t>1.2;2;1;2;1;2</t>
-  </si>
-  <si>
-    <t>1;1;3;1.5;4;6</t>
-  </si>
-  <si>
-    <t>1;1;2;3;4;5</t>
-  </si>
-  <si>
-    <t>2;1;3;1;2;3</t>
-  </si>
-  <si>
     <t>Capitalized</t>
   </si>
   <si>
@@ -25198,18 +25186,6 @@
     <t>213817598636402</t>
   </si>
   <si>
-    <t>1;1;0.5;2</t>
-  </si>
-  <si>
-    <t>3;2;1;2.5</t>
-  </si>
-  <si>
-    <t>6;3;0.85;3.33</t>
-  </si>
-  <si>
-    <t>5;4;1.3;1.25</t>
-  </si>
-  <si>
     <t>MRA ASSET MOBIL.MOBIL 2.MOBIL 3</t>
   </si>
   <si>
@@ -25297,9 +25273,6 @@
     <t>REGION2</t>
   </si>
   <si>
-    <t>6478501</t>
-  </si>
-  <si>
     <t>MRA LIFE INSCO BRANCH 2</t>
   </si>
   <si>
@@ -25948,9 +25921,6 @@
     <t>$Product Offering Code</t>
   </si>
   <si>
-    <t>3;2;1;3;2;1</t>
-  </si>
-  <si>
     <t>Agency Bintang COMPANY</t>
   </si>
   <si>
@@ -25993,9 +25963,6 @@
     <t>0821321839125</t>
   </si>
   <si>
-    <t>213817598636400</t>
-  </si>
-  <si>
     <t>LookUp</t>
   </si>
   <si>
@@ -26308,9 +26275,6 @@
     <t>1;1;0;0;0</t>
   </si>
   <si>
-    <t>2.5;2;1.25;1;0.75</t>
-  </si>
-  <si>
     <t>Supplier;Supplier;Multifinance</t>
   </si>
   <si>
@@ -26329,15 +26293,9 @@
     <t>0;;5</t>
   </si>
   <si>
-    <t>Agency Bintang COMPANY;MARIA JANE;DRAGUN KANIA</t>
-  </si>
-  <si>
     <t>MAMA TONI</t>
   </si>
   <si>
-    <t>CV LOPO</t>
-  </si>
-  <si>
     <t>09/12/2000</t>
   </si>
   <si>
@@ -26446,15 +26404,9 @@
     <t>DIO</t>
   </si>
   <si>
-    <t>Select ApplicationInProcess;</t>
-  </si>
-  <si>
     <t>No;No</t>
   </si>
   <si>
-    <t>BUDI;FT COMPANY</t>
-  </si>
-  <si>
     <t>213721293203024</t>
   </si>
   <si>
@@ -26485,12 +26437,6 @@
     <t>15000;20000;0</t>
   </si>
   <si>
-    <t>YASPAROV</t>
-  </si>
-  <si>
-    <t>FT BUDIAWAN;FT COMPANY</t>
-  </si>
-  <si>
     <t>FT BUDIAWAN</t>
   </si>
   <si>
@@ -26500,9 +26446,6 @@
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>6786500</t>
-  </si>
-  <si>
     <t>222rgv21sdd</t>
   </si>
   <si>
@@ -26518,15 +26461,6 @@
     <t>ond2D1v3cx13</t>
   </si>
   <si>
-    <t>21871000</t>
-  </si>
-  <si>
-    <t>15000;6786500;0</t>
-  </si>
-  <si>
-    <t>14.692175</t>
-  </si>
-  <si>
     <t>DP Nett Percentage</t>
   </si>
   <si>
@@ -26536,9 +26470,6 @@
     <t>Is Vat</t>
   </si>
   <si>
-    <t>21455000</t>
-  </si>
-  <si>
     <t>Edit Additional Coverage</t>
   </si>
   <si>
@@ -26581,25 +26512,73 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>0002APP20221206294</t>
+    <t>FT FENDY</t>
+  </si>
+  <si>
+    <t>FT BUDIAWAN;</t>
+  </si>
+  <si>
+    <t>273819248374928</t>
+  </si>
+  <si>
+    <t>Supplier;Supplier</t>
+  </si>
+  <si>
+    <t>MRA SUPPLIER COMPANY;MRA SUPPLIER COMPANY</t>
+  </si>
+  <si>
+    <t>Subsidy DP;Discount Insurance</t>
+  </si>
+  <si>
+    <t>AP Deduction;AP Deduction</t>
+  </si>
+  <si>
+    <t>Amount;Amount</t>
+  </si>
+  <si>
+    <t>0;</t>
+  </si>
+  <si>
+    <t>15000;200000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>;FT COMPANY</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10.176474</t>
+  </si>
+  <si>
+    <t>0002APP20221206341</t>
+  </si>
+  <si>
+    <t>0002APP20221206344</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>-;Failed Delete[SUBSIDY RATE]</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>0002APP20221206295</t>
-  </si>
-  <si>
-    <t>FT FENDY</t>
-  </si>
-  <si>
-    <t>FT BUDIAWAN;</t>
-  </si>
-  <si>
-    <t>-;Failed Verify Data DDLDP Source PayType;Failed Verify Data DDLInstallment Source PayType</t>
-  </si>
-  <si>
-    <t>Failed Verify Match / Equal</t>
+    <t>-;Failed Verify Match / Equal</t>
+  </si>
+  <si>
+    <t>0002APP20221206346</t>
+  </si>
+  <si>
+    <t>-;Failed Delete[SUBSIDY RATE];Failed Delete[SUBSIDY RATE]</t>
+  </si>
+  <si>
+    <t>10.330608</t>
   </si>
 </sst>
 </file>
@@ -26828,7 +26807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -27106,15 +27085,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -27131,7 +27101,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="43"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="44"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="196">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -27371,7 +27341,6 @@
     </xf>
     <xf applyBorder="1" applyFill="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="22" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="16" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -27446,7 +27415,7 @@
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="168">
     <dxf>
       <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
@@ -27907,6 +27876,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -28011,6 +27987,13 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -29734,8 +29717,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29752,13 +29735,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>3419</v>
+        <v>3410</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>3420</v>
+        <v>3411</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -29781,19 +29764,19 @@
       </c>
       <c r="C2" s="18">
         <f>COUNTA('3a.TabGuarantorDataPersonal'!$B$12:$XFD$12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="18">
         <f>COUNTA('3b.TabGuarantorDataCompany'!$B$12:$XFD$12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <f>COUNTA('5.TabReferantorData'!$B$12:$XFD$12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('7a.Accessories'!$B$12:$XFD$12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <f>COUNTA('12.TabUploadDocument'!$B$12:$XFD$12)</f>
@@ -29802,24 +29785,24 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3421</v>
+        <v>3412</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>3441</v>
+        <v>3431</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>3442</v>
+        <v>3432</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>3444</v>
+        <v>3434</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>3448</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>3645</v>
+        <v>3622</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>37</v>
@@ -29828,7 +29811,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>37</v>
@@ -29852,7 +29835,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B4" pane="topRight" sqref="B4"/>
+      <selection activeCell="C1" pane="topRight" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29868,9 +29851,9 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -29888,12 +29871,12 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3046</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>3046</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -29911,12 +29894,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="18">
         <f ref="B4" si="0" t="shared">COUNTIFS($A$12:$A$15,"*$*",B12:B15,"")+COUNTIFS($A$17:$A$20,"*$*",B17:B20,"")+COUNTIFS($A$25:$A$26,"*$*",B25:B26,"")+COUNTIFS($A$35,"*$*",B35,"")+IF(B18="Used",COUNTIFS($A$29:$A$33,"*$*",B29:B33,""),0)+IF(B26="Percentage",COUNTIFS($A$27,"*$*",B27,""),COUNTIFS($A$28,"*$*",B28,""))+IF(B37="No",COUNTIFS($A$38:$A$39,"*$*",B38:B39,""),0)+IF(AND(B41="No",B42="Personal"),COUNTIFS($A$42:$A$44,"*$*",B42:B44,"")+COUNTIFS($A$48:$A$49,"*$*",B48:B49,""),0)+IF(AND(B41="No",B42="Company"),COUNTIFS($A$42:$A$44,"*$*",B42:B44,"")+COUNTIFS($A$47:$A$49,"*$*",B47:B49,""),0)+IF(B52="Yes",COUNTIFS($A$53,"*$*",B53,""),0)+IF(B52="No",COUNTIFS($A$54:$A$60,"*$*",B54:B60,""),0)</f>
@@ -29945,12 +29928,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
@@ -29959,29 +29942,29 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
+    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="167" t="s">
         <v>3018</v>
       </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>3333</v>
+        <v>3324</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3413</v>
+        <v>3404</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>3413</v>
+        <v>3404</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>3334</v>
+        <v>3325</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3147</v>
@@ -29992,7 +29975,7 @@
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>3335</v>
+        <v>3326</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>3070</v>
@@ -30012,29 +29995,29 @@
         <v>3071</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="168" t="s">
+    <row customFormat="1" r="16" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="167" t="s">
         <v>3019</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3336</v>
+        <v>3327</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>3189</v>
+        <v>3181</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>3189</v>
+        <v>3181</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>3337</v>
+        <v>3328</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3145</v>
@@ -30045,7 +30028,7 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3338</v>
+        <v>3329</v>
       </c>
       <c r="B19" s="55">
         <v>1000000000</v>
@@ -30056,7 +30039,7 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3339</v>
+        <v>3330</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>3141</v>
@@ -30107,7 +30090,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>3340</v>
+        <v>3331</v>
       </c>
       <c r="B25" s="7">
         <v>2022</v>
@@ -30124,7 +30107,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>97</v>
@@ -30141,7 +30124,7 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>3342</v>
+        <v>3333</v>
       </c>
       <c r="B27" s="10">
         <v>20</v>
@@ -30158,7 +30141,7 @@
     </row>
     <row customFormat="1" r="28" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>3343</v>
+        <v>3334</v>
       </c>
       <c r="B28" s="55">
         <v>180000000</v>
@@ -30175,78 +30158,78 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>3344</v>
+        <v>3335</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="113" t="s">
-        <v>3624</v>
+        <v>3605</v>
       </c>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>3345</v>
+        <v>3336</v>
       </c>
       <c r="B30" s="113"/>
       <c r="C30" s="113" t="s">
-        <v>3620</v>
+        <v>3601</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>3346</v>
+        <v>3337</v>
       </c>
       <c r="B31" s="113"/>
       <c r="C31" s="113" t="s">
-        <v>3623</v>
+        <v>3604</v>
       </c>
     </row>
     <row customFormat="1" r="32" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>3347</v>
+        <v>3338</v>
       </c>
       <c r="B32" s="113"/>
       <c r="C32" s="113" t="s">
-        <v>3621</v>
+        <v>3602</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>3348</v>
+        <v>3339</v>
       </c>
       <c r="B33" s="128"/>
       <c r="C33" s="128" t="s">
-        <v>3622</v>
-      </c>
-    </row>
-    <row customFormat="1" r="34" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="168" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row customFormat="1" r="34" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="167" t="s">
         <v>3020</v>
       </c>
-      <c r="B34" s="169"/>
+      <c r="B34" s="168"/>
     </row>
     <row customFormat="1" r="35" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>3349</v>
+        <v>3340</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3072</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row customFormat="1" r="36" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="168" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row customFormat="1" r="36" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="167" t="s">
         <v>3021</v>
       </c>
-      <c r="B36" s="169"/>
+      <c r="B36" s="168"/>
     </row>
     <row customFormat="1" r="37" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>46</v>
@@ -30254,7 +30237,7 @@
     </row>
     <row customFormat="1" r="38" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
-        <v>3350</v>
+        <v>3341</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>3067</v>
@@ -30265,7 +30248,7 @@
     </row>
     <row customFormat="1" r="39" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>3351</v>
+        <v>3342</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>11</v>
@@ -30274,18 +30257,18 @@
         <v>278</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="168" t="s">
+    <row customFormat="1" r="40" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="167" t="s">
         <v>3022</v>
       </c>
-      <c r="B40" s="169"/>
+      <c r="B40" s="168"/>
     </row>
     <row customFormat="1" r="41" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>46</v>
@@ -30293,7 +30276,7 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>44</v>
@@ -30304,7 +30287,7 @@
     </row>
     <row customFormat="1" r="43" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>3353</v>
+        <v>3344</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>3138</v>
@@ -30315,7 +30298,7 @@
     </row>
     <row customFormat="1" r="44" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>3354</v>
+        <v>3345</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>12</v>
@@ -30361,7 +30344,7 @@
     </row>
     <row customFormat="1" r="48" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>3355</v>
+        <v>3346</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>14</v>
@@ -30372,10 +30355,10 @@
     </row>
     <row customFormat="1" r="49" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
-        <v>3356</v>
+        <v>3347</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3526</v>
+        <v>3515</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>3136</v>
@@ -30386,24 +30369,24 @@
         <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3570</v>
+        <v>3556</v>
       </c>
       <c r="C50" s="2">
         <v>1231413</v>
       </c>
     </row>
-    <row customFormat="1" r="51" s="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="168" t="s">
-        <v>3332</v>
-      </c>
-      <c r="B51" s="169"/>
+    <row customFormat="1" r="51" s="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="167" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B51" s="168"/>
     </row>
     <row customFormat="1" r="52" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>36</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>46</v>
@@ -30411,7 +30394,7 @@
     </row>
     <row customFormat="1" r="53" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
-        <v>3357</v>
+        <v>3348</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>105</v>
@@ -30422,10 +30405,10 @@
     </row>
     <row customFormat="1" r="54" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>3285</v>
+        <v>3276</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>3527</v>
+        <v>3516</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>3139</v>
@@ -30433,7 +30416,7 @@
     </row>
     <row customFormat="1" r="55" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -30444,7 +30427,7 @@
     </row>
     <row customFormat="1" r="56" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -30455,7 +30438,7 @@
     </row>
     <row customFormat="1" r="57" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
-        <v>3288</v>
+        <v>3279</v>
       </c>
       <c r="B57" s="2">
         <v>40242</v>
@@ -30466,7 +30449,7 @@
     </row>
     <row customFormat="1" r="58" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>3068</v>
@@ -30477,7 +30460,7 @@
     </row>
     <row customFormat="1" r="59" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>3069</v>
@@ -30488,7 +30471,7 @@
     </row>
     <row customFormat="1" r="60" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
-        <v>3291</v>
+        <v>3282</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>3137</v>
@@ -30497,15 +30480,15 @@
         <v>3137</v>
       </c>
     </row>
-    <row customFormat="1" r="61" s="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="168" t="s">
+    <row customFormat="1" r="61" s="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="167" t="s">
         <v>3076</v>
       </c>
-      <c r="B61" s="169"/>
+      <c r="B61" s="168"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="107" t="s">
-        <v>3358</v>
+        <v>3349</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>46</v>
@@ -30519,15 +30502,15 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
     </row>
-    <row customFormat="1" r="63" s="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="168" t="s">
-        <v>3455</v>
-      </c>
-      <c r="B63" s="169"/>
+    <row customFormat="1" r="63" s="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="167" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B63" s="168"/>
     </row>
     <row customFormat="1" r="64" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>3456</v>
+        <v>3445</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>46</v>
@@ -30535,7 +30518,7 @@
     </row>
     <row customFormat="1" r="65" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>3457</v>
+        <v>3446</v>
       </c>
     </row>
     <row customFormat="1" r="66" s="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -30545,21 +30528,21 @@
     </row>
     <row customFormat="1" r="67" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>3458</v>
+        <v>3447</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>3487</v>
-      </c>
-    </row>
-    <row customFormat="1" r="68" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="168" t="s">
-        <v>3468</v>
-      </c>
-      <c r="B68" s="169"/>
+        <v>3476</v>
+      </c>
+    </row>
+    <row customFormat="1" r="68" s="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="167" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B68" s="168"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="117" t="s">
-        <v>3460</v>
+        <v>3449</v>
       </c>
       <c r="B69" s="118">
         <f>IF(B26="Percentage",B27,B28/B19*100)</f>
@@ -30572,7 +30555,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="117" t="s">
-        <v>3461</v>
+        <v>3450</v>
       </c>
       <c r="B70" s="118">
         <f>IF(B26="Amount",B28,B19*B27%)</f>
@@ -30596,57 +30579,57 @@
     <mergeCell ref="A40:XFD40"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule dxfId="123" priority="16" type="expression">
+    <cfRule dxfId="124" priority="16" type="expression">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD28">
-    <cfRule dxfId="122" priority="15" type="expression">
+    <cfRule dxfId="123" priority="15" type="expression">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD39">
-    <cfRule dxfId="121" priority="14" type="expression">
+    <cfRule dxfId="122" priority="14" type="expression">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:XFD50">
-    <cfRule dxfId="120" priority="13" type="expression">
+    <cfRule dxfId="121" priority="13" type="expression">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60 D54:XFD60">
-    <cfRule dxfId="119" priority="10" type="expression">
+    <cfRule dxfId="120" priority="10" type="expression">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:XFD53">
-    <cfRule dxfId="118" priority="9" type="expression">
+    <cfRule dxfId="119" priority="9" type="expression">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD47">
-    <cfRule dxfId="117" priority="8" type="expression">
+    <cfRule dxfId="118" priority="8" type="expression">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD46">
-    <cfRule dxfId="116" priority="7" type="expression">
+    <cfRule dxfId="117" priority="7" type="expression">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:XFD62">
-    <cfRule dxfId="115" priority="6" type="expression">
+    <cfRule dxfId="116" priority="6" type="expression">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C60">
-    <cfRule dxfId="114" priority="5" type="expression">
+    <cfRule dxfId="115" priority="5" type="expression">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C60">
-    <cfRule dxfId="113" priority="4" type="expression">
+    <cfRule dxfId="114" priority="4" type="expression">
       <formula>B$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30754,7 +30737,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection activeCell="B12" pane="topRight" sqref="B12:C12"/>
+      <selection activeCell="C1" pane="topRight" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30771,10 +30754,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3618</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3618</v>
+        <v>3600</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -30794,7 +30777,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -30820,12 +30803,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="B4" s="18">
         <f>IF(B18="Amount",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A20:$A20,"*$*",B20:B20,""),IF(B18="Percentage",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A19:$A19,"*$*",B19:B19,"")))</f>
@@ -30865,16 +30848,20 @@
       <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="18" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20221206294</v>
+      </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
-        <v>3333</v>
+        <v>3324</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3413</v>
+        <v>3404</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3528</v>
+        <v>3517</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -30884,13 +30871,13 @@
     </row>
     <row customFormat="1" r="14" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>3334</v>
+        <v>3325</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3147</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3437</v>
+        <v>3427</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3147</v>
@@ -30910,13 +30897,13 @@
     </row>
     <row customFormat="1" r="15" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>3366</v>
+        <v>3357</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3489</v>
+        <v>3478</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3529</v>
+        <v>3518</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -30926,13 +30913,13 @@
     </row>
     <row customFormat="1" r="16" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>3367</v>
+        <v>3358</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3073</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3438</v>
+        <v>3428</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>3073</v>
@@ -30952,7 +30939,7 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>3368</v>
+        <v>3359</v>
       </c>
       <c r="B17" s="28">
         <v>1000000</v>
@@ -30978,7 +30965,7 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>107</v>
@@ -31004,7 +30991,7 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>3342</v>
+        <v>3333</v>
       </c>
       <c r="B19" s="18">
         <v>25</v>
@@ -31030,7 +31017,7 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>3343</v>
+        <v>3334</v>
       </c>
       <c r="B20" s="28">
         <v>2500000</v>
@@ -31059,18 +31046,18 @@
         <v>96</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>3499</v>
-      </c>
-    </row>
-    <row customFormat="1" r="22" s="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="168" t="s">
-        <v>3468</v>
-      </c>
-      <c r="B22" s="169"/>
+        <v>3488</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" s="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="167" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B22" s="168"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="117" t="s">
-        <v>3460</v>
+        <v>3449</v>
       </c>
       <c r="B23" s="118">
         <f>IF(B18="Percentage",B19,B20/B17*100)</f>
@@ -31083,7 +31070,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="117" t="s">
-        <v>3461</v>
+        <v>3450</v>
       </c>
       <c r="B24" s="118">
         <f>IF(B18="Amount",B20,B17*B19%)</f>
@@ -31099,26 +31086,26 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="B19:XFD19">
-    <cfRule dxfId="112" priority="6" type="expression">
+    <cfRule dxfId="113" priority="6" type="expression">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule dxfId="111" priority="5" type="expression">
+    <cfRule dxfId="112" priority="5" type="expression">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule dxfId="110" priority="2" type="expression">
+    <cfRule dxfId="111" priority="2" type="expression">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="109" priority="1" type="expression">
+    <cfRule dxfId="110" priority="1" type="expression">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B17:H17" type="custom">
       <formula1>ISNUMBER(B17)</formula1>
     </dataValidation>
@@ -31134,6 +31121,7 @@
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>"Yes, No, Edit"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B1:B2"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -31148,7 +31136,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection activeCell="B12" pane="topRight" sqref="B12"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31163,10 +31151,10 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="139" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -31184,12 +31172,12 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B2" s="139" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3046</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>3046</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -31207,12 +31195,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="B4" s="18">
         <f>IF(B12="Customer",COUNTIFS($A12:$A20,"*$*",B12:B20,""),IF(B12="Off System",COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A43,"*$*",B22:B43,""),IF(AND(B12="Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A26,"*$*",B22:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",B12:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,"")))))))</f>
@@ -31241,12 +31229,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -31257,38 +31245,38 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+    <row customFormat="1" r="11" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="176" t="s">
         <v>3023</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>3369</v>
+        <v>3360</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
+    <row customFormat="1" r="13" s="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="182"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>3370</v>
+        <v>3361</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>3140</v>
@@ -31299,7 +31287,7 @@
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>3371</v>
+        <v>3362</v>
       </c>
       <c r="B15" s="27">
         <v>110000000</v>
@@ -31320,7 +31308,7 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>3372</v>
+        <v>3363</v>
       </c>
       <c r="B18" s="72">
         <v>44197</v>
@@ -31331,7 +31319,7 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>3373</v>
+        <v>3364</v>
       </c>
       <c r="B19" s="72">
         <v>44623</v>
@@ -31345,18 +31333,18 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="180" t="s">
+    <row customFormat="1" r="21" s="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="182"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="181"/>
     </row>
     <row customFormat="1" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
-        <v>3349</v>
+        <v>3340</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>195</v>
@@ -31367,7 +31355,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>3371</v>
+        <v>3362</v>
       </c>
       <c r="B23" s="27">
         <v>310000000</v>
@@ -31378,7 +31366,7 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
-        <v>3374</v>
+        <v>3365</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>113</v>
@@ -31389,7 +31377,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>192</v>
@@ -31400,7 +31388,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>3370</v>
+        <v>3361</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>393</v>
@@ -31416,7 +31404,7 @@
     </row>
     <row customFormat="1" r="28" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>3376</v>
+        <v>3367</v>
       </c>
       <c r="B28" s="18">
         <v>16</v>
@@ -31425,14 +31413,14 @@
         <v>48</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="177" t="s">
+    <row customFormat="1" r="29" s="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="176" t="s">
         <v>3024</v>
       </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="179"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="178"/>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
@@ -31467,18 +31455,18 @@
         <v>800000</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="184" t="s">
+    <row customFormat="1" r="33" s="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="183" t="s">
         <v>3025</v>
       </c>
-      <c r="B33" s="185"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="186"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="185"/>
     </row>
     <row customFormat="1" r="34" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>3377</v>
+        <v>3368</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>121</v>
@@ -31498,7 +31486,7 @@
     </row>
     <row customFormat="1" r="36" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
-        <v>3378</v>
+        <v>3369</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>87</v>
@@ -31509,7 +31497,7 @@
     </row>
     <row customFormat="1" r="37" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
-        <v>3379</v>
+        <v>3370</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>87</v>
@@ -31520,7 +31508,7 @@
     </row>
     <row customFormat="1" r="38" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
-        <v>3380</v>
+        <v>3371</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>87</v>
@@ -31531,7 +31519,7 @@
     </row>
     <row customFormat="1" r="39" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>3381</v>
+        <v>3372</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>87</v>
@@ -31542,7 +31530,7 @@
     </row>
     <row customFormat="1" r="40" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>3382</v>
+        <v>3373</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>87</v>
@@ -31553,7 +31541,7 @@
     </row>
     <row customFormat="1" r="41" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>3383</v>
+        <v>3374</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>87</v>
@@ -31564,7 +31552,7 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>3384</v>
+        <v>3375</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>87</v>
@@ -31575,7 +31563,7 @@
     </row>
     <row customFormat="1" r="43" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="108" t="s">
-        <v>3385</v>
+        <v>3376</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>87</v>
@@ -31586,44 +31574,40 @@
       <c r="D43" s="99"/>
       <c r="E43" s="99"/>
     </row>
-    <row customFormat="1" r="44" s="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="188" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B44" s="189"/>
-      <c r="C44" s="189"/>
-      <c r="D44" s="189"/>
-      <c r="E44" s="189"/>
+    <row customFormat="1" r="44" s="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="187" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
     </row>
     <row customFormat="1" r="45" s="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="87" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B45" s="88" t="s">
-        <v>3530</v>
-      </c>
+        <v>3151</v>
+      </c>
+      <c r="B45" s="88"/>
       <c r="C45" s="88" t="s">
-        <v>3530</v>
+        <v>3519</v>
       </c>
     </row>
     <row customFormat="1" r="46" s="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="87" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="B46" s="88"/>
       <c r="C46" s="88" t="s">
-        <v>3606</v>
+        <v>3590</v>
       </c>
     </row>
     <row customFormat="1" r="47" s="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="87" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>3538</v>
-      </c>
+        <v>3153</v>
+      </c>
+      <c r="B47" s="88"/>
       <c r="C47" s="88" t="s">
-        <v>3538</v>
+        <v>3527</v>
       </c>
     </row>
     <row customFormat="1" r="48" s="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -31632,12 +31616,12 @@
       </c>
       <c r="B48" s="88"/>
       <c r="C48" s="88" t="s">
-        <v>3539</v>
+        <v>3528</v>
       </c>
     </row>
     <row customFormat="1" r="49" s="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="148" t="s">
-        <v>3632</v>
+        <v>3609</v>
       </c>
       <c r="B49" s="149"/>
       <c r="C49" s="149"/>
@@ -31648,11 +31632,9 @@
       <c r="A50" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="89" t="s">
-        <v>3530</v>
-      </c>
+      <c r="B50" s="89"/>
       <c r="C50" s="89" t="s">
-        <v>3530</v>
+        <v>3519</v>
       </c>
     </row>
     <row customFormat="1" r="51" s="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -31661,29 +31643,25 @@
       </c>
       <c r="B51" s="89"/>
       <c r="C51" s="89" t="s">
-        <v>3540</v>
+        <v>3529</v>
       </c>
     </row>
     <row customFormat="1" r="52" s="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="89" t="s">
-        <v>3541</v>
-      </c>
+      <c r="B52" s="89"/>
       <c r="C52" s="89" t="s">
-        <v>3541</v>
+        <v>3530</v>
       </c>
     </row>
     <row customFormat="1" r="53" s="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="89" t="s">
-        <v>3542</v>
-      </c>
+      <c r="B53" s="89"/>
       <c r="C53" s="89" t="s">
-        <v>3542</v>
+        <v>3531</v>
       </c>
     </row>
     <row customFormat="1" r="54" s="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -31692,7 +31670,7 @@
       </c>
       <c r="B54" s="89"/>
       <c r="C54" s="89" t="s">
-        <v>3543</v>
+        <v>3532</v>
       </c>
     </row>
     <row customFormat="1" r="55" s="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -31701,209 +31679,203 @@
       </c>
       <c r="B55" s="89"/>
       <c r="C55" s="89" t="s">
-        <v>3544</v>
+        <v>3533</v>
       </c>
     </row>
     <row customFormat="1" r="56" s="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="89" t="s">
-        <v>3545</v>
-      </c>
+      <c r="B56" s="89"/>
       <c r="C56" s="89" t="s">
-        <v>3545</v>
+        <v>3534</v>
       </c>
     </row>
     <row customFormat="1" r="57" s="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="87" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B57" s="89" t="s">
-        <v>3546</v>
-      </c>
+        <v>3193</v>
+      </c>
+      <c r="B57" s="89"/>
       <c r="C57" s="89" t="s">
-        <v>3546</v>
+        <v>3535</v>
       </c>
     </row>
     <row customFormat="1" r="58" s="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="150" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
     </row>
     <row customFormat="1" r="59" s="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
-        <v>3547</v>
+        <v>3536</v>
       </c>
     </row>
     <row customFormat="1" r="60" s="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
-        <v>3548</v>
+        <v>3537</v>
       </c>
     </row>
     <row customFormat="1" r="61" s="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
-        <v>3549</v>
+        <v>3538</v>
       </c>
     </row>
     <row customFormat="1" r="62" s="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
-        <v>3550</v>
+        <v>3539</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
-        <v>3551</v>
+        <v>3540</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
-        <v>3552</v>
+        <v>3541</v>
       </c>
     </row>
     <row customFormat="1" r="65" s="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
-        <v>3553</v>
+        <v>3542</v>
       </c>
     </row>
     <row customFormat="1" r="66" s="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>3202</v>
+        <v>3194</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13" t="s">
-        <v>3554</v>
+        <v>3543</v>
       </c>
     </row>
     <row customFormat="1" r="67" s="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>3204</v>
+        <v>3196</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
     </row>
     <row customFormat="1" r="68" s="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="95" t="s">
-        <v>3200</v>
+        <v>3192</v>
       </c>
       <c r="B68" s="97"/>
       <c r="C68" s="97"/>
     </row>
     <row customFormat="1" r="69" s="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>3555</v>
-      </c>
+        <v>3183</v>
+      </c>
+      <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
-        <v>3607</v>
+        <v>3591</v>
       </c>
     </row>
     <row customFormat="1" r="70" s="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="96" t="s">
-        <v>3192</v>
+        <v>3184</v>
       </c>
       <c r="B70" s="96"/>
       <c r="C70" s="96"/>
     </row>
     <row customFormat="1" r="71" s="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>3193</v>
+        <v>3185</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
     </row>
     <row customFormat="1" r="72" s="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>3194</v>
+        <v>3186</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
-        <v>3531</v>
+        <v>3520</v>
       </c>
     </row>
     <row customFormat="1" r="73" s="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>3195</v>
+        <v>3187</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
-        <v>3532</v>
+        <v>3521</v>
       </c>
     </row>
     <row customFormat="1" r="74" s="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>3196</v>
+        <v>3188</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>3533</v>
+        <v>3522</v>
       </c>
     </row>
     <row customFormat="1" r="75" s="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>3197</v>
+        <v>3189</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>3534</v>
+        <v>3523</v>
       </c>
     </row>
     <row customFormat="1" r="76" s="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>3198</v>
+        <v>3190</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>3535</v>
+        <v>3524</v>
       </c>
     </row>
     <row customFormat="1" r="77" s="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>3199</v>
+        <v>3191</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>3536</v>
+        <v>3525</v>
       </c>
     </row>
     <row customFormat="1" r="78" s="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="87" t="s">
-        <v>3201</v>
+        <v>3193</v>
       </c>
       <c r="B78" s="88"/>
       <c r="C78" s="88" t="s">
-        <v>3537</v>
+        <v>3526</v>
       </c>
     </row>
     <row customFormat="1" r="79" s="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>3203</v>
+        <v>3195</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -31919,7 +31891,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="27">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="C81" s="27">
         <v>20000</v>
@@ -31927,24 +31899,24 @@
     </row>
     <row customFormat="1" r="82" s="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="90" t="s">
-        <v>3168</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3619</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>3218</v>
+        <v>3164</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" s="17">
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="83" s="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="109" t="s">
-        <v>3415</v>
+        <v>3406</v>
       </c>
       <c r="B83" s="151"/>
     </row>
     <row customFormat="1" r="84" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>3416</v>
+        <v>3407</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>87</v>
@@ -31955,10 +31927,10 @@
     </row>
     <row customFormat="1" r="85" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>3417</v>
-      </c>
-      <c r="B85">
-        <v>21455000</v>
+        <v>3408</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
       </c>
       <c r="C85">
         <v>21871000</v>
@@ -31966,18 +31938,16 @@
     </row>
     <row customFormat="1" r="86" s="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="152" t="s">
-        <v>3467</v>
+        <v>3456</v>
       </c>
       <c r="B86" t="s">
-        <v>3631</v>
-      </c>
-      <c r="C86" t="s">
-        <v>3625</v>
-      </c>
+        <v>3633</v>
+      </c>
+      <c r="C86" s="102"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>3462</v>
+        <v>3451</v>
       </c>
       <c r="B87" s="116">
         <f>SUM(B31:B32)</f>
@@ -31990,7 +31960,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>3463</v>
+        <v>3452</v>
       </c>
       <c r="B88" s="116">
         <f>'7.TabAssetData'!B19</f>
@@ -32003,7 +31973,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
-        <v>3464</v>
+        <v>3453</v>
       </c>
       <c r="B89" s="116">
         <f>B88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -32016,14 +31986,14 @@
     </row>
     <row customFormat="1" r="90" s="17" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="173" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B91" s="174"/>
+      <c r="A91" s="172" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B91" s="173"/>
     </row>
     <row ht="30" r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="B92" s="94">
         <f>IF(B24="Annualy",0,IF(B24="Full Tenor",ROUNDUP('6.TabApplicationData'!B20/12,0)-1,ROUNDUP(B28/12,0)-1))</f>
@@ -32031,14 +32001,14 @@
       </c>
     </row>
     <row customHeight="1" ht="30" r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="175" t="s">
-        <v>3166</v>
-      </c>
-      <c r="B93" s="176"/>
+      <c r="A93" s="174" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B93" s="175"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="86" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="B94" s="94">
         <f>B92+1</f>
@@ -32046,14 +32016,14 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="172" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B95" s="172"/>
+      <c r="A95" s="171" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B95" s="171"/>
     </row>
     <row customHeight="1" ht="45.75" r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="172"/>
-      <c r="B96" s="172"/>
+      <c r="A96" s="171"/>
+      <c r="B96" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -32068,96 +32038,96 @@
     <mergeCell ref="A44:XFD44"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule dxfId="108" priority="20" type="expression">
+    <cfRule dxfId="109" priority="20" type="expression">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 D74:XFD78 A68:A73 A81:XFD82 B22:XFD28 A30:XFD32 B34:XFD34 A79:C79 A45:XFD48 A50:XFD57 B59:C73 B36:XFD43">
-    <cfRule dxfId="107" priority="19" type="expression">
+    <cfRule dxfId="108" priority="19" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 D74:XFD78 A68:A73 A81:XFD82 B22:XFD28 A30:XFD32 B34:XFD34 B14:XFD20 A79:C79 A45:XFD48 A50:XFD57 B59:C73 B36:XFD43">
-    <cfRule dxfId="106" priority="18" type="expression">
+    <cfRule dxfId="107" priority="18" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule dxfId="105" priority="17" type="expression">
+    <cfRule dxfId="106" priority="17" type="expression">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule dxfId="104" priority="16" type="expression">
+    <cfRule dxfId="105" priority="16" type="expression">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule dxfId="103" priority="15" type="expression">
+    <cfRule dxfId="104" priority="15" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule dxfId="102" priority="14" type="expression">
+    <cfRule dxfId="103" priority="14" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule dxfId="101" priority="11" type="expression">
+    <cfRule dxfId="102" priority="11" type="expression">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule dxfId="100" priority="10" type="expression">
+    <cfRule dxfId="101" priority="10" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule dxfId="99" priority="9" type="expression">
+    <cfRule dxfId="100" priority="9" type="expression">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule dxfId="98" priority="8" type="expression">
+    <cfRule dxfId="99" priority="8" type="expression">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule dxfId="97" priority="7" type="expression">
+    <cfRule dxfId="98" priority="7" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule dxfId="96" priority="6" type="expression">
+    <cfRule dxfId="97" priority="6" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule dxfId="95" priority="5" type="expression">
+    <cfRule dxfId="96" priority="5" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule dxfId="94" priority="4" type="expression">
+    <cfRule dxfId="95" priority="4" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule dxfId="93" priority="3" type="expression">
+    <cfRule dxfId="94" priority="3" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule dxfId="92" priority="2" type="expression">
+    <cfRule dxfId="93" priority="2" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule dxfId="91" priority="1" type="expression">
+    <cfRule dxfId="92" priority="1" type="expression">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="17">
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B31:C31" type="custom">
       <formula1>AND(OR(B$12="Multifinance",B$12="Customer - Multifinance"),B30="NO",ISNUMBER(B31))</formula1>
     </dataValidation>
@@ -32204,6 +32174,7 @@
       <formula1>"Yes, No, Edit"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" errorStyle="information" showInputMessage="1" sqref="B85"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="C1:C2"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -32246,8 +32217,8 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -32267,7 +32238,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -32290,12 +32261,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="B4" s="18">
         <f>IF(AND(B12="NO"),COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="YES",OR(B14="Full Paid in Advance",B14="Full Capitalized"),B19="YES PARTIAL"),COUNTIFS($A12:$A14,"*$*",B12:B14,"")+COUNTIFS($A18:$A23,"*$*",B18:B23,""),IF(AND(B12="YES",B14="Paid in Advance &amp; Capitalized Mix",B19="YES PARTIAL"),COUNTIFS($A12:$A23,"*$*",B12:B23,""),IF(AND(B12="YES",B14="Paid in Advance &amp; Capitalized Mix",OR(B19="YES",B19="NO")),COUNTIFS($A12:$A20,"*$*",B12:B20,"")+COUNTIFS($A23:$A23,"*$*",B23:B23,""),IF(AND(B12="YES",OR(B14="Full Paid in Advance",B14="Full Capitalized"),OR(B19="YES",B19="NO")),COUNTIFS($A12:$A14,"*$*",B12:B14,"")+COUNTIFS($A18:$A20,"*$*",B18:B20,"")+COUNTIFS($A23:$A23,"*$*",B23:B23,""))))))</f>
@@ -32324,12 +32295,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -32340,17 +32311,17 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="167" t="s">
+    <row customFormat="1" r="11" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="166" t="s">
         <v>3027</v>
       </c>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>87</v>
@@ -32358,21 +32329,21 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
-        <v>3387</v>
+        <v>3378</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>401</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3219</v>
+        <v>3210</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>3388</v>
+        <v>3379</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>236</v>
@@ -32380,7 +32351,7 @@
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>3389</v>
+        <v>3380</v>
       </c>
       <c r="B15" s="37">
         <v>0.3</v>
@@ -32394,14 +32365,14 @@
         <v>96</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="167" t="s">
+    <row customFormat="1" r="17" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="166" t="s">
         <v>3028</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>3390</v>
+        <v>3381</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>87</v>
@@ -32412,10 +32383,10 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>3391</v>
+        <v>3382</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>117</v>
@@ -32423,10 +32394,10 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>3392</v>
+        <v>3383</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>117</v>
@@ -32434,23 +32405,23 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>3393</v>
+        <v>3384</v>
       </c>
       <c r="B21" t="s">
-        <v>3616</v>
+        <v>3635</v>
       </c>
       <c r="C21" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row customFormat="1" r="22" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="166" t="s">
         <v>3029</v>
       </c>
     </row>
     <row customFormat="1" r="23" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>3394</v>
+        <v>3385</v>
       </c>
       <c r="B23" s="27">
         <v>600000</v>
@@ -32470,42 +32441,42 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:XFD23 A16:XFD16 B18:XFD21 B13:XFD15">
-    <cfRule dxfId="90" priority="8" type="expression">
+    <cfRule dxfId="91" priority="8" type="expression">
       <formula>A$12="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:XFD15">
-    <cfRule dxfId="89" priority="7" type="expression">
+    <cfRule dxfId="90" priority="7" type="expression">
       <formula>AND(B$14&lt;&gt;"Paid in Advance &amp; Capitalized Mix",B$14&lt;&gt;"",B$14&lt;&gt;"Premium Payment Method")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:XFD21">
-    <cfRule dxfId="88" priority="6" type="expression">
+    <cfRule dxfId="89" priority="6" type="expression">
       <formula>AND(B$19&lt;&gt;"YES PARTIAL",B$19&lt;&gt;"",B$19&lt;&gt;"Subject Guarantor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A15">
-    <cfRule dxfId="87" priority="5" type="expression">
+    <cfRule dxfId="88" priority="5" type="expression">
       <formula>A$12="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule dxfId="86" priority="4" type="expression">
+    <cfRule dxfId="87" priority="4" type="expression">
       <formula>AND(A$14&lt;&gt;"Paid in Advance &amp; Capitalized Mix",A$14&lt;&gt;"",A$14&lt;&gt;"Premium Payment Method")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A21">
-    <cfRule dxfId="85" priority="3" type="expression">
+    <cfRule dxfId="86" priority="3" type="expression">
       <formula>A$12="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule dxfId="84" priority="2" type="expression">
+    <cfRule dxfId="85" priority="2" type="expression">
       <formula>AND(A$19&lt;&gt;"YES PARTIAL",A$19&lt;&gt;"",A$19&lt;&gt;"Subject Guarantor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule dxfId="83" priority="1" type="expression">
+    <cfRule dxfId="84" priority="1" type="expression">
       <formula>A$12="NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32565,7 +32536,7 @@
   <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32582,7 +32553,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -32602,10 +32573,10 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" t="s">
-        <v>3046</v>
+        <v>3644</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>3046</v>
@@ -32625,12 +32596,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="B4" s="18">
         <f>IF(AND('8.TabInsuranceData'!B81&gt;0,B46="Yes"),COUNTIFS($A12:$A18,"*$*",B12:B18,"")+COUNTIFS($A47:$A48,"*$*",B47:B48,""),IF(AND('8.TabInsuranceData'!B81&gt;0,B46="No"),COUNTIFS($A12:$A18,"*$*",B12:B18,""),IF(AND(OR('8.TabInsuranceData'!B81&lt;=0,ISBLANK(B82)),B46="Yes"),COUNTIFS($A47:$A48,"*$*",B47:B48,""),0)))</f>
@@ -32659,114 +32630,114 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>3452</v>
+        <v>3441</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="176" t="s">
         <v>3030</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>3395</v>
+        <v>3386</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>3556</v>
+        <v>3626</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>3556</v>
+        <v>3544</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>3557</v>
+        <v>3627</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3557</v>
+        <v>3545</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>3397</v>
+        <v>3388</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3558</v>
+        <v>3628</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3558</v>
+        <v>3546</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>3398</v>
+        <v>3389</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>3559</v>
+        <v>3629</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>3559</v>
+        <v>3547</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
-        <v>3399</v>
+        <v>3390</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>3560</v>
+        <v>3630</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>3560</v>
+        <v>3548</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>3400</v>
+        <v>3391</v>
       </c>
       <c r="B17" t="s">
-        <v>3626</v>
+        <v>3632</v>
       </c>
       <c r="C17" s="139" t="s">
-        <v>3613</v>
+        <v>3597</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>3401</v>
+        <v>3392</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>3561</v>
+        <v>3631</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" s="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="177" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row customFormat="1" r="19" s="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="176" t="s">
         <v>3031</v>
       </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
@@ -32783,8 +32754,8 @@
       <c r="A21" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B21">
-        <v>250000</v>
+      <c r="B21" t="n">
+        <v>150000.0</v>
       </c>
       <c r="C21" s="139">
         <v>150000</v>
@@ -33010,14 +32981,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="177" t="s">
+    <row customFormat="1" r="42" s="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="176" t="s">
         <v>3032</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
     </row>
     <row customFormat="1" r="43" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -33035,7 +33006,7 @@
         <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>3627</v>
+        <v>3645</v>
       </c>
       <c r="C44" s="146">
         <v>14.685191</v>
@@ -33065,7 +33036,7 @@
     </row>
     <row customFormat="1" r="47" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>3402</v>
+        <v>3393</v>
       </c>
       <c r="B47" s="18">
         <v>3</v>
@@ -33076,7 +33047,7 @@
     </row>
     <row customFormat="1" r="48" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>3403</v>
+        <v>3394</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>3053</v>
@@ -33098,17 +33069,17 @@
     </row>
     <row customFormat="1" ht="15.75" r="50" s="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>3454</v>
+        <v>3443</v>
       </c>
       <c r="B50" s="114"/>
       <c r="C50" s="114"/>
     </row>
     <row customFormat="1" ht="15.75" r="51" s="92" spans="1:3" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="B51" s="92" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C51" s="92" t="s">
         <v>37</v>
@@ -33116,7 +33087,7 @@
     </row>
     <row customFormat="1" r="52" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>3469</v>
+        <v>3458</v>
       </c>
       <c r="B52" s="142">
         <v>1000</v>
@@ -33127,10 +33098,10 @@
     </row>
     <row customFormat="1" r="53" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>3477</v>
-      </c>
-      <c r="B53">
-        <v>15000</v>
+        <v>3466</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15000.0</v>
       </c>
       <c r="C53" s="145">
         <v>15000</v>
@@ -33138,12 +33109,12 @@
     </row>
     <row customFormat="1" r="54" s="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="120" t="s">
-        <v>3470</v>
+        <v>3459</v>
       </c>
     </row>
     <row customFormat="1" r="55" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>3471</v>
+        <v>3460</v>
       </c>
       <c r="B55" s="143">
         <f>SUM(B56:B57)</f>
@@ -33156,7 +33127,7 @@
     </row>
     <row customFormat="1" r="56" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>3463</v>
+        <v>3452</v>
       </c>
       <c r="B56" s="143">
         <f>'7.TabAssetData'!B19</f>
@@ -33169,7 +33140,7 @@
     </row>
     <row customFormat="1" r="57" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>3472</v>
+        <v>3461</v>
       </c>
       <c r="B57" s="143">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -33182,11 +33153,11 @@
     </row>
     <row customFormat="1" r="58" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>3462</v>
+        <v>3451</v>
       </c>
       <c r="B58" s="143">
         <f>SUM(B21:B25,B39)</f>
-        <v>34320000</v>
+        <v>34220000</v>
       </c>
       <c r="C58" s="143">
         <f>SUM(C21:C25,C39)</f>
@@ -33195,7 +33166,7 @@
     </row>
     <row customFormat="1" r="59" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>3473</v>
+        <v>3462</v>
       </c>
       <c r="B59" s="143">
         <f>SUM(B27,B29,B31,B33,B35,B41)</f>
@@ -33208,7 +33179,7 @@
     </row>
     <row customFormat="1" r="60" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>3474</v>
+        <v>3463</v>
       </c>
       <c r="B60" s="143">
         <f>'8.TabInsuranceData'!B85</f>
@@ -33221,7 +33192,7 @@
     </row>
     <row customFormat="1" r="61" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>3475</v>
+        <v>3464</v>
       </c>
       <c r="B61" s="143">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!B70</f>
@@ -33234,7 +33205,7 @@
     </row>
     <row customFormat="1" r="62" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>3476</v>
+        <v>3465</v>
       </c>
       <c r="B62" s="143">
         <f>B61-B53</f>
@@ -33247,7 +33218,7 @@
     </row>
     <row customFormat="1" r="63" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>3486</v>
+        <v>3475</v>
       </c>
       <c r="B63" s="140">
         <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
@@ -33260,7 +33231,7 @@
     </row>
     <row customFormat="1" r="64" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>3478</v>
+        <v>3467</v>
       </c>
       <c r="B64" s="144">
         <f>IF(B37= "OTR-DP",(B55-B61)*B38/100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))*B38/100))</f>
@@ -33273,15 +33244,15 @@
     </row>
     <row customFormat="1" r="65" s="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="119" t="s">
-        <v>3479</v>
+        <v>3468</v>
       </c>
     </row>
     <row customFormat="1" r="66" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>3480</v>
-      </c>
-      <c r="B66">
-        <v>136603062</v>
+        <v>3469</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.283381875E8</v>
       </c>
       <c r="C66" s="139">
         <v>158750241</v>
@@ -33289,10 +33260,10 @@
     </row>
     <row customFormat="1" r="67" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>3481</v>
-      </c>
-      <c r="B67">
-        <v>212724813</v>
+        <v>3470</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8.3131E8</v>
       </c>
       <c r="C67" s="139">
         <v>533791104</v>
@@ -33300,10 +33271,10 @@
     </row>
     <row customFormat="1" r="68" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>3482</v>
-      </c>
-      <c r="B68">
-        <v>5400000</v>
+        <v>3471</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9.89E7</v>
       </c>
       <c r="C68" s="139">
         <v>13547000</v>
@@ -33311,10 +33282,10 @@
     </row>
     <row customFormat="1" r="69" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B69">
-        <v>95075184.390000001</v>
+        <v>3472</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.878999802E7</v>
       </c>
       <c r="C69" s="139">
         <v>238387887.74000001</v>
@@ -33322,10 +33293,10 @@
     </row>
     <row customFormat="1" r="70" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>3484</v>
-      </c>
-      <c r="B70">
-        <v>307799997.38999999</v>
+        <v>3473</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8.9009999802E8</v>
       </c>
       <c r="C70" s="139">
         <v>772178991.74000001</v>
@@ -33333,18 +33304,18 @@
     </row>
     <row customFormat="1" ht="15.75" r="71" s="42" spans="1:21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="157" t="s">
-        <v>3485</v>
-      </c>
-      <c r="B71" s="158">
-        <v>15.651882649999999</v>
-      </c>
-      <c r="C71" s="159">
+        <v>3474</v>
+      </c>
+      <c r="B71" t="n">
+        <v>15.56148508</v>
+      </c>
+      <c r="C71" s="158">
         <v>15.67253681</v>
       </c>
     </row>
     <row ht="15.75" r="72" spans="1:21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="117" t="s">
-        <v>3628</v>
+        <v>3606</v>
       </c>
       <c r="B72" s="146">
         <f>B62*100/B55</f>
@@ -33357,7 +33328,7 @@
     </row>
     <row customFormat="1" r="73" s="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="117" t="s">
-        <v>3629</v>
+        <v>3607</v>
       </c>
       <c r="B73" s="139">
         <f>IF(B37= "OTR-DP",(B55-B61),IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))))</f>
@@ -33447,77 +33418,77 @@
     <mergeCell ref="A42:XFD42"/>
   </mergeCells>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule dxfId="82" priority="22" type="expression">
+    <cfRule dxfId="83" priority="22" type="expression">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule dxfId="81" priority="17" type="expression">
+    <cfRule dxfId="82" priority="17" type="expression">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule dxfId="80" priority="21" type="expression">
+    <cfRule dxfId="81" priority="21" type="expression">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule dxfId="79" priority="20" type="expression">
+    <cfRule dxfId="80" priority="20" type="expression">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule dxfId="78" priority="19" type="expression">
+    <cfRule dxfId="79" priority="19" type="expression">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule dxfId="77" priority="18" type="expression">
+    <cfRule dxfId="78" priority="18" type="expression">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule dxfId="76" priority="16" type="expression">
+    <cfRule dxfId="77" priority="16" type="expression">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule dxfId="75" priority="15" type="expression">
+    <cfRule dxfId="76" priority="15" type="expression">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule dxfId="74" priority="14" type="expression">
+    <cfRule dxfId="75" priority="14" type="expression">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule dxfId="73" priority="13" type="expression">
+    <cfRule dxfId="74" priority="13" type="expression">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule dxfId="72" priority="12" type="expression">
+    <cfRule dxfId="73" priority="12" type="expression">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD48">
-    <cfRule dxfId="71" priority="9" type="expression">
+    <cfRule dxfId="72" priority="9" type="expression">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule dxfId="70" priority="4" type="expression">
+    <cfRule dxfId="71" priority="4" type="expression">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule dxfId="69" priority="3" type="expression">
+    <cfRule dxfId="70" priority="3" type="expression">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule dxfId="68" priority="1" type="expression">
+    <cfRule dxfId="69" priority="1" type="expression">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33643,7 +33614,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33658,8 +33629,8 @@
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3600</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>7</v>
@@ -33679,10 +33650,10 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>3046</v>
+        <v>3202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3642</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3046</v>
@@ -33702,13 +33673,13 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="B4" s="18">
         <f>IF(NOT(ISBLANK(B12)),COUNTIFS($A13:$A13,"*$*",B13:B13,""),0)</f>
@@ -33746,13 +33717,13 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
       <c r="C9" s="15"/>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -33777,7 +33748,7 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>3404</v>
+        <v>3395</v>
       </c>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -33787,10 +33758,10 @@
         <v>2419</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>3610</v>
+        <v>3594</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>3612</v>
+        <v>3596</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -33812,7 +33783,7 @@
         <v>2422</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>3611</v>
+        <v>3595</v>
       </c>
       <c r="C17" s="79"/>
     </row>
@@ -33827,16 +33798,16 @@
       <c r="C19" s="16"/>
     </row>
     <row customFormat="1" customHeight="1" ht="101.25" r="20" s="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="190" t="s">
+      <c r="A20" s="189" t="s">
         <v>2446</v>
       </c>
-      <c r="B20" s="190"/>
+      <c r="B20" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A20:B20"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B16:C16" type="custom">
       <formula1>B15&lt;&gt;""</formula1>
     </dataValidation>
@@ -33846,6 +33817,7 @@
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10:C10" type="list">
       <formula1>"Yes, No, Edit"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B1:B2"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -33879,8 +33851,8 @@
       <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>7</v>
+      <c r="C1" t="s">
+        <v>3641</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -33897,13 +33869,13 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>3046</v>
+      <c r="C2" t="s">
+        <v>3642</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3046</v>
@@ -33920,12 +33892,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A13:$A14,"*$*",B13:B14,"")</f>
@@ -33942,12 +33914,12 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -33974,13 +33946,13 @@
     </row>
     <row customFormat="1" ht="60" r="13" s="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>3405</v>
+        <v>3396</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>3447</v>
+        <v>3437</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>3447</v>
+        <v>3437</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>170</v>
@@ -33991,19 +33963,19 @@
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>3406</v>
+        <v>3397</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3220</v>
+        <v>3211</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>3221</v>
+        <v>3212</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -34031,13 +34003,13 @@
         <v>175</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>3222</v>
+        <v>3213</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>3223</v>
+        <v>3214</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>3225</v>
+        <v>3216</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -34064,9 +34036,9 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="G63" pane="topRight" sqref="G63"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34080,8 +34052,8 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -34101,9 +34073,9 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B2" s="18" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B2" t="s">
         <v>3046</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -34124,12 +34096,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A14:$A52,"*$*",B14:B52,"")</f>
@@ -34158,18 +34130,18 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>3452</v>
+        <v>3441</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3452</v>
+        <v>3441</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -34192,14 +34164,14 @@
         <v>107</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="191" t="s">
+    <row customFormat="1" r="13" s="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="190" t="s">
         <v>2437</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="193"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="192"/>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -34214,7 +34186,7 @@
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>3313</v>
+        <v>3304</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -34399,14 +34371,14 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="191" t="s">
+    <row customFormat="1" r="26" s="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="190" t="s">
         <v>2441</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="193"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="192"/>
     </row>
     <row customFormat="1" r="27" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
@@ -34428,7 +34400,7 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
-        <v>3313</v>
+        <v>3304</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>3150</v>
@@ -34437,10 +34409,10 @@
         <v>3150</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>3226</v>
+        <v>3217</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>3227</v>
+        <v>3218</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34451,13 +34423,13 @@
         <v>3144</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>3228</v>
+        <v>3219</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>3229</v>
+        <v>3220</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>3230</v>
+        <v>3221</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="31" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34465,16 +34437,16 @@
         <v>2432</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>3435</v>
+        <v>3150</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>3608</v>
+        <v>3592</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>3231</v>
+        <v>3222</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>3232</v>
+        <v>3223</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="32" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34485,13 +34457,13 @@
         <v>3144</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>3228</v>
+        <v>3219</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>3229</v>
+        <v>3220</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>3230</v>
+        <v>3221</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34499,16 +34471,16 @@
         <v>2440</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>3233</v>
+        <v>3224</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>3234</v>
+        <v>3225</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="34" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34519,13 +34491,13 @@
         <v>3144</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>3228</v>
+        <v>3219</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>3229</v>
+        <v>3220</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>3230</v>
+        <v>3221</v>
       </c>
     </row>
     <row customFormat="1" r="35" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34533,16 +34505,16 @@
         <v>2423</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>3236</v>
+        <v>3227</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>3237</v>
+        <v>3228</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>3238</v>
+        <v>3229</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="36" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34553,13 +34525,13 @@
         <v>3144</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>3228</v>
+        <v>3219</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>3229</v>
+        <v>3220</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>3230</v>
+        <v>3221</v>
       </c>
     </row>
     <row customFormat="1" r="37" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34567,16 +34539,16 @@
         <v>2425</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>3239</v>
+        <v>3230</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>3240</v>
+        <v>3231</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>3241</v>
+        <v>3232</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34601,16 +34573,16 @@
         <v>2427</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>3242</v>
+        <v>3233</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>3243</v>
+        <v>3234</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>3244</v>
+        <v>3235</v>
       </c>
     </row>
     <row customFormat="1" r="40" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34641,44 +34613,42 @@
         <v>3075</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>3245</v>
+        <v>3236</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>3246</v>
-      </c>
-    </row>
-    <row customFormat="1" r="42" s="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="191" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row customFormat="1" r="42" s="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="190" t="s">
         <v>2430</v>
       </c>
-      <c r="B42" s="192"/>
-    </row>
-    <row customFormat="1" ht="30" r="43" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="191"/>
+    </row>
+    <row customFormat="1" r="43" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>2431</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>3562</v>
-      </c>
+      <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row customFormat="1" r="44" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>3313</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>3453</v>
+        <v>3304</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>3453</v>
+        <v>3442</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>3247</v>
+        <v>3238</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>3248</v>
+        <v>3239</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="45" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34687,7 +34657,7 @@
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>3609</v>
+        <v>3593</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -34696,17 +34666,17 @@
       <c r="A46" s="13" t="s">
         <v>2432</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>3185</v>
+      <c r="B46" s="14">
+        <v>1</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>3249</v>
+        <v>3240</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>3250</v>
+        <v>3241</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>3251</v>
+        <v>3242</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="47" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34715,7 +34685,7 @@
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>3609</v>
+        <v>3593</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -34724,17 +34694,17 @@
       <c r="A48" s="13" t="s">
         <v>2423</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>3186</v>
+      <c r="B48" s="14">
+        <v>1</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>3252</v>
+        <v>3243</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>3253</v>
+        <v>3244</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>3254</v>
+        <v>3245</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="49" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34743,7 +34713,7 @@
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
-        <v>3609</v>
+        <v>3593</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -34752,17 +34722,17 @@
       <c r="A50" s="13" t="s">
         <v>2425</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>3187</v>
+      <c r="B50" s="14">
+        <v>1</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>3255</v>
+        <v>3246</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>3257</v>
+        <v>3248</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="51" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -34771,7 +34741,7 @@
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
-        <v>3609</v>
+        <v>3593</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -34780,83 +34750,83 @@
       <c r="A52" s="13" t="s">
         <v>2427</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>3188</v>
+      <c r="B52" s="14">
+        <v>1</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>3258</v>
+        <v>3249</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>3259</v>
+        <v>3250</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row customFormat="1" r="53" s="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="194" t="s">
-        <v>3500</v>
+        <v>3251</v>
+      </c>
+    </row>
+    <row customFormat="1" r="53" s="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="193" t="s">
+        <v>3489</v>
       </c>
     </row>
     <row customFormat="1" r="54" s="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="123" t="s">
-        <v>3504</v>
+        <v>3493</v>
       </c>
       <c r="B54" t="s">
-        <v>3510</v>
+        <v>37</v>
       </c>
       <c r="C54" s="139" t="s">
-        <v>3510</v>
+        <v>3499</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="55" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>3501</v>
+        <v>3490</v>
       </c>
       <c r="B55" s="125" t="s">
-        <v>3505</v>
+        <v>3494</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>3505</v>
+        <v>3494</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
     </row>
     <row customFormat="1" ht="30" r="56" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>3502</v>
+        <v>3491</v>
       </c>
       <c r="B56" s="125" t="s">
-        <v>3506</v>
+        <v>3495</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>3506</v>
+        <v>3495</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
     <row customFormat="1" r="57" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>3503</v>
+        <v>3492</v>
       </c>
       <c r="B57" s="125" t="s">
-        <v>3507</v>
+        <v>3496</v>
       </c>
       <c r="C57" s="125" t="s">
-        <v>3507</v>
+        <v>3496</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
     </row>
     <row customFormat="1" r="58" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>3511</v>
+        <v>3500</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>3487</v>
+        <v>3476</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>3487</v>
+        <v>3476</v>
       </c>
     </row>
     <row customFormat="1" r="59" s="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -34875,10 +34845,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="195" t="s">
+      <c r="A62" s="194" t="s">
         <v>2434</v>
       </c>
-      <c r="B62" s="196"/>
+      <c r="B62" s="195"/>
     </row>
     <row ht="210" r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
@@ -34904,13 +34874,13 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A53:XFD53"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17:XFD17 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A46:XFD46 A48:XFD48 A50:XFD50 A52:XFD52 A31:XFD31 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule dxfId="64" priority="3" type="expression">
+  <conditionalFormatting sqref="A17:XFD17 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A46:XFD46 A48:XFD48 A50:XFD50 A52:XFD52 A31 A33 A35 A37 A39 A41:XFD41 C31:XFD31 C33:XFD33 C35:XFD35 C37:XFD37 C39:XFD39">
+    <cfRule dxfId="65" priority="3" type="expression">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A45:XFD45 A30:XFD30 A32:XFD32 A34:XFD34 A38:XFD38 A40:XFD40 A36:XFD36 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule dxfId="63" priority="2" type="expression">
+    <cfRule dxfId="64" priority="2" type="expression">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34921,7 +34891,7 @@
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B49:E49 B47:E47 B30:E30 B45:E45 B40:E40 B38:E38 B36:E36 B34:E34 B32:E32 B51:E51" type="custom">
       <formula1>B$12="Amount"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B50:E50 B59:E59 B46:E46 B48:E48 B52:E52 B31:E31 B41:E41 B39:E39 B37:E37 B35:E35 B33:E33 D55:E57" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B50:E50 B59:E59 B46:E46 B48:E48 B52:E52 D55:E57 B41:E41 C37:E37 C35:E35 C33:E33 C31:E31 C39:E39" type="custom">
       <formula1>B$12="Percentage"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="whole">
@@ -34934,7 +34904,7 @@
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B25:E25 B17:E17 B19:E19 B21:E21 B23:E23" type="custom">
       <formula1>AND(B$12="Percentage",ISNUMBER(B17))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B57:C57 B29:E29 B44:E44"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B57:C57 B29:E29 B44:E44 B31 B33 B35 B37 B39 B1:B2"/>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10:C10" type="list">
       <formula1>"Edit, Yes, No"</formula1>
     </dataValidation>
@@ -34961,7 +34931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="I5" pane="topRight" sqref="I5"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34975,8 +34945,8 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -34996,7 +34966,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -35019,12 +34989,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
@@ -35053,29 +35023,29 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>3452</v>
+        <v>3441</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3452</v>
+        <v>3441</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
-        <v>3428</v>
+        <v>3419</v>
       </c>
       <c r="B11" s="102"/>
     </row>
     <row customFormat="1" ht="15.75" r="12" s="42" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
-        <v>3423</v>
+        <v>3414</v>
       </c>
       <c r="B12" s="41">
         <v>1000000</v>
@@ -35092,10 +35062,10 @@
     </row>
     <row customFormat="1" ht="16.5" r="13" s="44" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69" t="s">
-        <v>3424</v>
-      </c>
-      <c r="B13" s="43">
-        <v>0</v>
+        <v>3415</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
       </c>
       <c r="C13" s="43">
         <v>0</v>
@@ -35109,10 +35079,10 @@
     </row>
     <row customFormat="1" ht="16.5" r="14" s="44" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>3425</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>3416</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
       </c>
       <c r="C14" s="43">
         <v>0</v>
@@ -35126,7 +35096,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="15" s="44" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>3426</v>
+        <v>3417</v>
       </c>
       <c r="B15" s="43">
         <v>2010</v>
@@ -35143,7 +35113,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="16" s="44" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>3427</v>
+        <v>3418</v>
       </c>
       <c r="B16" s="43">
         <v>4010</v>
@@ -35160,7 +35130,7 @@
     </row>
     <row ht="15.75" r="17" spans="1:5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="115" t="s">
-        <v>3459</v>
+        <v>3448</v>
       </c>
       <c r="B17" s="116">
         <f>B12+B13+B14+B15+B16</f>
@@ -35171,78 +35141,78 @@
         <v>1000020</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="194" t="s">
-        <v>3500</v>
+    <row customFormat="1" r="18" s="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="193" t="s">
+        <v>3489</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="123" t="s">
-        <v>3504</v>
+        <v>3493</v>
       </c>
       <c r="B19" s="123" t="s">
-        <v>3510</v>
+        <v>37</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>3510</v>
+        <v>3499</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>3501</v>
+        <v>3490</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>3505</v>
+        <v>3494</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>3505</v>
+        <v>3494</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row customFormat="1" ht="30" r="21" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>3502</v>
+        <v>3491</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>3508</v>
+        <v>3497</v>
       </c>
       <c r="C21" s="125" t="s">
-        <v>3508</v>
+        <v>3497</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row customFormat="1" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>3503</v>
+        <v>3492</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>3509</v>
+        <v>3498</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>3509</v>
+        <v>3498</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row customFormat="1" r="23" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>3511</v>
+        <v>3500</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>3512</v>
+        <v>3501</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>3512</v>
+        <v>3501</v>
       </c>
     </row>
     <row ht="120" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="126" t="s">
-        <v>3422</v>
+        <v>3413</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -35254,7 +35224,7 @@
     <mergeCell ref="A18:XFD18"/>
   </mergeCells>
   <conditionalFormatting sqref="A23 A20:XFD22">
-    <cfRule dxfId="62" priority="1" type="expression">
+    <cfRule dxfId="63" priority="1" type="expression">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35278,7 +35248,7 @@
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B19:C19" type="list">
       <formula1>"Yes,No,Done"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B22:C22"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B22:C22 B1:B2"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -35293,7 +35263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B13" pane="topRight" sqref="B13"/>
+      <selection activeCell="B17" pane="topRight" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35309,7 +35279,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3618</v>
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -35329,10 +35299,10 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" t="s">
-        <v>3652</v>
+        <v>3046</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>3046</v>
@@ -35352,12 +35322,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="106">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
@@ -35374,18 +35344,18 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3446</v>
+        <v>3436</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>3452</v>
+        <v>3441</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3452</v>
+        <v>3441</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -35393,7 +35363,7 @@
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>3359</v>
+        <v>3350</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -35406,24 +35376,24 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="B13" t="s">
-        <v>3614</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>3649</v>
+        <v>3623</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>3207</v>
+        <v>3199</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>3207</v>
+        <v>3199</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>3408</v>
+        <v>3399</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>87</v>
@@ -35440,27 +35410,27 @@
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>3409</v>
+        <v>3400</v>
       </c>
       <c r="B15" t="s">
-        <v>3582</v>
+        <v>3568</v>
       </c>
       <c r="C15" t="s">
-        <v>3617</v>
+        <v>3599</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>3208</v>
+        <v>3200</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>3208</v>
+        <v>3200</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>3408</v>
+        <v>3399</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>87</v>
@@ -35474,27 +35444,27 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="B17" t="s">
-        <v>3615</v>
+        <v>3634</v>
       </c>
       <c r="C17" t="s">
-        <v>3650</v>
+        <v>3624</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>3209</v>
+        <v>3201</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3209</v>
+        <v>3201</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>3408</v>
+        <v>3399</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>87</v>
@@ -35507,8 +35477,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="A10 A5:A8 D1:XFD10 A1:C3 B5:C10"/>
+  <conditionalFormatting sqref="B17">
+    <cfRule dxfId="62" priority="1" type="expression">
+      <formula>B$13="Input Data"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="A10 A5:A8 D1:XFD10 B5:C10 A1:C3"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B17" type="custom">
+      <formula1>B$13="LookUp"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -35532,10 +35510,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:C2"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35548,10 +35526,10 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -35571,7 +35549,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -35594,13 +35572,13 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
       <c r="M3"/>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="14">
         <f>IF(AND(B14="Input Data",B10="No"),COUNTIFS($A19:$A31,"*$*",B19:B31,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A38:$A45,"*$*",B38:B45,"")+COUNTIFS($A12,"*$*",B12,""),IF(AND(B14="LookUp",B10="No"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A12,"*$*",B12,""),IF(B10="YES",COUNTIFS($A9,"*$*",B9,""),IF(AND(B14="Input Data",B10="Edit"),COUNTIFS($A19:$A31,"*$*",B19:B31,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A38:$A45,"*$*",B38:B45,"")+COUNTIFS($A9,"*$*",B9,""),IF(AND(B14="LookUp",B10="Edit"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A9,"*$*",B9,""))))))</f>
@@ -35618,25 +35596,25 @@
     <row customFormat="1" r="6" s="18" spans="1:13" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="7" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>3497</v>
+        <v>3486</v>
       </c>
     </row>
     <row customFormat="1" r="8" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row customFormat="1" r="9" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3432</v>
+        <v>3423</v>
       </c>
       <c r="B9" s="112"/>
       <c r="C9" s="112"/>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>37</v>
@@ -35653,7 +35631,7 @@
     </row>
     <row customFormat="1" r="12" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>3434</v>
+        <v>3425</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>3074</v>
@@ -35667,10 +35645,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
       <c r="C13" t="s">
-        <v>3648</v>
+        <v>3637</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -35687,7 +35665,7 @@
         <v>2410</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3451</v>
+        <v>3440</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>2411</v>
@@ -35700,13 +35678,13 @@
     </row>
     <row customFormat="1" r="16" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>3271</v>
+        <v>3262</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3465</v>
+        <v>3454</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3465</v>
+        <v>3454</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -35714,7 +35692,7 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>3272</v>
+        <v>3263</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>5</v>
@@ -35725,13 +35703,13 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>3273</v>
+        <v>3264</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3466</v>
+        <v>3455</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3466</v>
+        <v>3455</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -35739,21 +35717,21 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>3274</v>
+        <v>3265</v>
       </c>
       <c r="B19" t="s">
-        <v>3574</v>
+        <v>3560</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>3633</v>
+        <v>3610</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>3275</v>
+        <v>3266</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3575</v>
+        <v>3561</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -35764,7 +35742,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="B21" t="s">
         <v>317</v>
@@ -35787,7 +35765,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>3277</v>
+        <v>3268</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>205</v>
@@ -35798,13 +35776,13 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
-        <v>3278</v>
+        <v>3269</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3449</v>
+        <v>3439</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3634</v>
+        <v>3611</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -35812,7 +35790,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>3279</v>
+        <v>3270</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>17</v>
@@ -35823,7 +35801,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>3280</v>
+        <v>3271</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>20</v>
@@ -35834,13 +35812,13 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>3281</v>
+        <v>3272</v>
       </c>
       <c r="B27" s="136" t="s">
-        <v>3576</v>
+        <v>3562</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>3635</v>
+        <v>3612</v>
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
@@ -35848,13 +35826,13 @@
     </row>
     <row customFormat="1" r="28" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>3282</v>
+        <v>3273</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3577</v>
+        <v>3563</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3636</v>
+        <v>3613</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -35867,24 +35845,24 @@
     </row>
     <row customFormat="1" r="30" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>3283</v>
+        <v>3274</v>
       </c>
       <c r="B30" t="s">
-        <v>3578</v>
+        <v>3564</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>3637</v>
+        <v>3614</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>3284</v>
+        <v>3275</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>3579</v>
+        <v>3565</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>3638</v>
+        <v>3615</v>
       </c>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
@@ -35910,7 +35888,7 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>3293</v>
+        <v>3284</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>33</v>
@@ -35944,24 +35922,24 @@
     </row>
     <row customFormat="1" r="38" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
-        <v>3285</v>
+        <v>3276</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>3580</v>
+        <v>3566</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>3639</v>
+        <v>3616</v>
       </c>
     </row>
     <row customFormat="1" r="39" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2450</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3640</v>
+        <v>3617</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -35969,13 +35947,13 @@
     </row>
     <row customFormat="1" r="40" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3581</v>
+        <v>3567</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3641</v>
+        <v>3618</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -35983,7 +35961,7 @@
     </row>
     <row customFormat="1" r="41" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>3288</v>
+        <v>3279</v>
       </c>
       <c r="B41" s="2">
         <v>11530</v>
@@ -35997,40 +35975,40 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>3205</v>
+        <v>3197</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>3642</v>
+        <v>3619</v>
       </c>
     </row>
     <row customFormat="1" r="43" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>3205</v>
+        <v>3197</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>3642</v>
+        <v>3619</v>
       </c>
     </row>
     <row customFormat="1" r="44" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>3291</v>
+        <v>3282</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>3206</v>
+        <v>3198</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>3643</v>
+        <v>3620</v>
       </c>
     </row>
     <row customFormat="1" r="45" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>3292</v>
+        <v>3283</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>42</v>
@@ -36066,22 +36044,22 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A16:XFD18">
-    <cfRule dxfId="165" priority="4" type="expression">
+    <cfRule dxfId="167" priority="4" type="expression">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31 G26:XFD31 A20:XFD24 A38:XFD45 A26:F30 A19 C19:XFD19">
-    <cfRule dxfId="164" priority="3" type="expression">
+    <cfRule dxfId="166" priority="3" type="expression">
       <formula>A$14="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule dxfId="163" priority="2" type="expression">
+    <cfRule dxfId="165" priority="2" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule dxfId="162" priority="1" type="expression">
+    <cfRule dxfId="164" priority="1" type="expression">
       <formula>B$14="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36460,7 +36438,7 @@
         <v>2449</v>
       </c>
       <c r="DP1" s="29" t="s">
-        <v>3261</v>
+        <v>3252</v>
       </c>
       <c r="DQ1" s="29" t="s">
         <v>2449</v>
@@ -36753,7 +36731,7 @@
         <v>63</v>
       </c>
       <c r="BH3" s="29" t="s">
-        <v>3269</v>
+        <v>3260</v>
       </c>
       <c r="BJ3" s="29" t="s">
         <v>217</v>
@@ -37391,10 +37369,10 @@
         <v>602</v>
       </c>
       <c r="DP7" s="29" t="s">
-        <v>3262</v>
+        <v>3253</v>
       </c>
       <c r="DQ7" s="29" t="s">
-        <v>3263</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="8" spans="1:121" x14ac:dyDescent="0.25">
@@ -37536,7 +37514,7 @@
         <v>2413</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>3440</v>
+        <v>3430</v>
       </c>
       <c r="AB9" s="29" t="s">
         <v>318</v>
@@ -37880,7 +37858,7 @@
         <v>2490</v>
       </c>
       <c r="AX13" s="29" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="BB13" s="29" t="s">
         <v>2963</v>
@@ -37954,7 +37932,7 @@
         <v>2491</v>
       </c>
       <c r="AX14" s="29" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="BB14" s="29" t="s">
         <v>2964</v>
@@ -38026,7 +38004,7 @@
         <v>2492</v>
       </c>
       <c r="AX15" s="29" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="BB15" s="29" t="s">
         <v>2965</v>
@@ -38091,7 +38069,7 @@
         <v>2493</v>
       </c>
       <c r="AX16" s="29" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="BB16" s="29" t="s">
         <v>2966</v>
@@ -38797,7 +38775,7 @@
         <v>503</v>
       </c>
       <c r="AN30" s="29" t="s">
-        <v>3270</v>
+        <v>3261</v>
       </c>
       <c r="AR30" s="29" t="s">
         <v>504</v>
@@ -38806,7 +38784,7 @@
         <v>2507</v>
       </c>
       <c r="CH30" s="29" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="DG30" s="29" t="s">
         <v>899</v>
@@ -38847,10 +38825,10 @@
         <v>2508</v>
       </c>
       <c r="DG31" s="29" t="s">
-        <v>3266</v>
+        <v>3257</v>
       </c>
       <c r="DH31" s="29" t="s">
-        <v>3267</v>
+        <v>3258</v>
       </c>
       <c r="DP31" s="29" t="s">
         <v>505</v>
@@ -38885,10 +38863,10 @@
         <v>2509</v>
       </c>
       <c r="DG32" s="29" t="s">
-        <v>3262</v>
+        <v>3253</v>
       </c>
       <c r="DH32" s="29" t="s">
-        <v>3263</v>
+        <v>3254</v>
       </c>
       <c r="DP32" s="29" t="s">
         <v>431</v>
@@ -38923,10 +38901,10 @@
         <v>2510</v>
       </c>
       <c r="DG33" s="29" t="s">
-        <v>3264</v>
+        <v>3255</v>
       </c>
       <c r="DH33" s="29" t="s">
-        <v>3265</v>
+        <v>3256</v>
       </c>
       <c r="DP33" s="29" t="s">
         <v>440</v>
@@ -38961,10 +38939,10 @@
         <v>2511</v>
       </c>
       <c r="DP34" s="29" t="s">
-        <v>3264</v>
+        <v>3255</v>
       </c>
       <c r="DQ34" s="29" t="s">
-        <v>3265</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="35" spans="1:121" x14ac:dyDescent="0.25">
@@ -40616,10 +40594,10 @@
         <v>2569</v>
       </c>
       <c r="DP92" s="29" t="s">
-        <v>3266</v>
+        <v>3257</v>
       </c>
       <c r="DQ92" s="29" t="s">
-        <v>3267</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="93" spans="1:121" x14ac:dyDescent="0.25">
@@ -47152,7 +47130,7 @@
     <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:C2"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47167,8 +47145,8 @@
       <c r="A1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -47460,7 +47438,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -47484,12 +47462,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="18">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A26,"*$*",B23:B26,"") + COUNTIFS($A29:$A31,"*$*",B29:B31,"") + COUNTIFS($A36:$A38,"*$*",B36:B38,"")+ COUNTIFS($A41:$A42,"*$*",B41:B42,"")+ IF(B46 = "No",COUNTIFS($A47:$A54,"*$*",B47:B54,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"") + COUNTIFS($A25,"*$*",B25,"") + COUNTIFS($A41:$A42,"*$*",B41:B42,"")))</f>
@@ -47506,12 +47484,12 @@
     <row customFormat="1" r="8" s="18" spans="1:101" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="33" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -47555,7 +47533,7 @@
       </c>
       <c r="B12" s="52" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206294</v>
       </c>
       <c r="C12" s="52" t="str">
         <f>'1.TabCustomerMainData'!C13</f>
@@ -47567,7 +47545,7 @@
         <v>2410</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>3451</v>
+        <v>3440</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>2411</v>
@@ -47580,10 +47558,10 @@
     </row>
     <row customFormat="1" r="15" s="49" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>3271</v>
+        <v>3262</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>3584</v>
+        <v>3570</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="48"/>
@@ -47612,10 +47590,10 @@
     </row>
     <row customFormat="1" r="16" s="49" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>3272</v>
+        <v>3263</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>3582</v>
+        <v>3568</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
@@ -47644,10 +47622,10 @@
     </row>
     <row customFormat="1" r="17" s="49" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>3273</v>
+        <v>3264</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>3583</v>
+        <v>3569</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -47676,7 +47654,7 @@
     </row>
     <row customFormat="1" r="18" s="47" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
-        <v>3295</v>
+        <v>3286</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>11</v>
@@ -47687,11 +47665,11 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>3600</v>
+        <v>3586</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -47704,13 +47682,13 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>3275</v>
+        <v>3266</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3135</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3515</v>
+        <v>3504</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -47813,7 +47791,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -47862,7 +47840,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>3277</v>
+        <v>3268</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>16</v>
@@ -47873,13 +47851,13 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
-        <v>3278</v>
+        <v>3269</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3513</v>
+        <v>3502</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3517</v>
+        <v>3506</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -47982,7 +47960,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>3279</v>
+        <v>3270</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>207</v>
@@ -47993,7 +47971,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
-        <v>3297</v>
+        <v>3288</v>
       </c>
       <c r="B26" s="18" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE),VLOOKUP(B27,Master!$DP:$DQ,2,FALSE)))))</f>
@@ -48047,7 +48025,7 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
-        <v>3280</v>
+        <v>3271</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>206</v>
@@ -48058,11 +48036,11 @@
     </row>
     <row customFormat="1" r="30" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>3298</v>
+        <v>3289</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>3514</v>
+        <v>3503</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -48165,11 +48143,11 @@
     </row>
     <row customFormat="1" r="31" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>3282</v>
+        <v>3273</v>
       </c>
       <c r="B31"/>
       <c r="C31" s="4" t="s">
-        <v>3585</v>
+        <v>3571</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -48282,11 +48260,11 @@
     </row>
     <row customFormat="1" r="33" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
-        <v>3283</v>
+        <v>3274</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>3586</v>
+        <v>3572</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -48299,11 +48277,11 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>3284</v>
+        <v>3275</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>3587</v>
+        <v>3573</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -48417,7 +48395,7 @@
     </row>
     <row customFormat="1" r="36" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
-        <v>3299</v>
+        <v>3290</v>
       </c>
       <c r="B36" s="18" t="str">
         <f>VLOOKUP(B37,Master!$E:$F,2,FALSE)</f>
@@ -48430,7 +48408,7 @@
     </row>
     <row customFormat="1" r="37" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
-        <v>3300</v>
+        <v>3291</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>199</v>
@@ -48570,7 +48548,7 @@
     </row>
     <row customFormat="1" r="41" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
-        <v>3301</v>
+        <v>3292</v>
       </c>
       <c r="B41" s="18" t="str">
         <f>VLOOKUP(B42,Master!$M:$N,2,FALSE)</f>
@@ -48583,7 +48561,7 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>3302</v>
+        <v>3293</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>33</v>
@@ -48734,19 +48712,19 @@
     </row>
     <row customFormat="1" r="47" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>3285</v>
+        <v>3276</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>3516</v>
+        <v>3505</v>
       </c>
     </row>
     <row customFormat="1" r="48" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>3581</v>
+        <v>3567</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -48849,11 +48827,11 @@
     </row>
     <row customFormat="1" r="49" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>3588</v>
+        <v>3574</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -48956,7 +48934,7 @@
     </row>
     <row customFormat="1" r="50" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
-        <v>3303</v>
+        <v>3294</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -49063,7 +49041,7 @@
     </row>
     <row customFormat="1" r="51" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>39</v>
@@ -49071,7 +49049,7 @@
     </row>
     <row customFormat="1" r="52" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>39</v>
@@ -49079,7 +49057,7 @@
     </row>
     <row customFormat="1" r="53" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
-        <v>3291</v>
+        <v>3282</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>2412</v>
@@ -49087,23 +49065,23 @@
     </row>
     <row customFormat="1" r="54" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>3304</v>
+        <v>3295</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>277</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="60" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A60" s="164" t="s">
+      <c r="A60" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="164" t="s">
+      <c r="B60" s="163" t="s">
         <v>3148</v>
       </c>
     </row>
     <row r="61" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A61" s="165"/>
-      <c r="B61" s="165"/>
+      <c r="A61" s="164"/>
+      <c r="B61" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -49111,42 +49089,42 @@
     <mergeCell ref="A60:A61"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule dxfId="161" priority="10" type="expression">
+    <cfRule dxfId="163" priority="10" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32 G29:XFD34 A33:F34 A29:F30 A46:XFD54 A20:XFD24 A19 G19:XFD19">
-    <cfRule dxfId="160" priority="9" type="expression">
+    <cfRule dxfId="162" priority="9" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule dxfId="159" priority="6" type="expression">
+    <cfRule dxfId="161" priority="6" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:XFD37">
-    <cfRule dxfId="158" priority="5" type="expression">
+    <cfRule dxfId="160" priority="5" type="expression">
       <formula>AND(A$35&lt;&gt;"Foreigner",A$35&lt;&gt;"Nationality",A$35&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD54">
-    <cfRule dxfId="157" priority="4" type="expression">
+    <cfRule dxfId="159" priority="4" type="expression">
       <formula>A$46="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:F32 C31:F31">
-    <cfRule dxfId="156" priority="3" type="expression">
+    <cfRule dxfId="158" priority="3" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:F19">
-    <cfRule dxfId="155" priority="2" type="expression">
+    <cfRule dxfId="157" priority="2" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule dxfId="154" priority="1" type="expression">
+    <cfRule dxfId="156" priority="1" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49303,8 +49281,8 @@
       <c r="A1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -49324,7 +49302,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -49423,7 +49401,7 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:26" x14ac:dyDescent="0.25"/>
@@ -49451,10 +49429,10 @@
       <c r="A14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="165" t="s">
         <v>3149</v>
       </c>
-      <c r="C14" s="166"/>
+      <c r="C14" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -49472,7 +49450,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="B13" pane="topRight" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49507,7 +49485,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -49530,12 +49508,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="106">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
@@ -49564,12 +49542,12 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="33" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -49589,10 +49567,7 @@
       <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="52" t="str">
-        <f>'1.TabCustomerMainData'!C13</f>
-        <v>0002APP20221206138</v>
-      </c>
+      <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
     </row>
@@ -49604,10 +49579,10 @@
         <v>2411</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3451</v>
+        <v>3440</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3451</v>
+        <v>3440</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>2411</v>
@@ -49616,32 +49591,32 @@
         <v>2411</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="167" t="s">
+    <row customFormat="1" r="14" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="166" t="s">
         <v>3012</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>3271</v>
+        <v>3262</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>3596</v>
+        <v>3582</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3465</v>
+        <v>3454</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
     <row customFormat="1" r="16" s="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>3272</v>
+        <v>3263</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>3594</v>
+        <v>3580</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>5</v>
@@ -49651,21 +49626,21 @@
     </row>
     <row customFormat="1" r="17" s="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>3273</v>
+        <v>3264</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>3595</v>
+        <v>3581</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3466</v>
+        <v>3455</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>3305</v>
+        <v>3296</v>
       </c>
       <c r="B18" t="s">
         <v>184</v>
@@ -49685,27 +49660,27 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>3306</v>
+        <v>3297</v>
       </c>
       <c r="B19" t="s">
-        <v>3599</v>
+        <v>3585</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>3573</v>
+        <v>3559</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>3275</v>
+        <v>3266</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>13</v>
@@ -49722,7 +49697,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -49756,7 +49731,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
-        <v>3277</v>
+        <v>3268</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>16</v>
@@ -49773,25 +49748,25 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
-        <v>3278</v>
+        <v>3269</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3518</v>
+        <v>3507</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3519</v>
+        <v>3508</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
     </row>
     <row customFormat="1" r="25" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>3279</v>
+        <v>3270</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>256</v>
@@ -49811,7 +49786,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>3280</v>
+        <v>3271</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>20</v>
@@ -49828,40 +49803,40 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>3298</v>
+        <v>3289</v>
       </c>
       <c r="B27" s="136" t="s">
-        <v>3589</v>
+        <v>3575</v>
       </c>
       <c r="C27" t="s">
-        <v>3566</v>
+        <v>3552</v>
       </c>
       <c r="D27" t="s">
-        <v>3565</v>
+        <v>3551</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>3212</v>
+        <v>3204</v>
       </c>
       <c r="F27" s="72" t="s">
-        <v>3213</v>
+        <v>3205</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>3282</v>
+        <v>3273</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3590</v>
+        <v>3576</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3571</v>
+        <v>3557</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row customFormat="1" r="29" s="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -49870,60 +49845,60 @@
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>3466</v>
+        <v>3455</v>
       </c>
       <c r="D29" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>3283</v>
+        <v>3274</v>
       </c>
       <c r="B30" t="s">
-        <v>3572</v>
+        <v>3558</v>
       </c>
       <c r="C30" t="s">
-        <v>3567</v>
+        <v>3553</v>
       </c>
       <c r="D30" t="s">
-        <v>3563</v>
+        <v>3550</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>3284</v>
+        <v>3275</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3591</v>
+        <v>3577</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3498</v>
+        <v>3487</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row customFormat="1" r="32" s="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="167" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row customFormat="1" r="32" s="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="166" t="s">
         <v>3008</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
-        <v>3301</v>
+        <v>3292</v>
       </c>
       <c r="B33" s="18" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
@@ -49944,7 +49919,7 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>3293</v>
+        <v>3284</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>33</v>
@@ -49997,7 +49972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="167" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="37" s="166" spans="1:6" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="38" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>36</v>
@@ -50017,10 +49992,10 @@
     </row>
     <row customFormat="1" r="39" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>3285</v>
+        <v>3276</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>3592</v>
+        <v>3578</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>3065</v>
@@ -50031,7 +50006,7 @@
     </row>
     <row customFormat="1" r="40" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2450</v>
@@ -50047,10 +50022,10 @@
     </row>
     <row customFormat="1" r="41" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3593</v>
+        <v>3579</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -50063,7 +50038,7 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>3288</v>
+        <v>3279</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>38</v>
@@ -50079,7 +50054,7 @@
     </row>
     <row customFormat="1" r="43" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>39</v>
@@ -50093,7 +50068,7 @@
     </row>
     <row customFormat="1" r="44" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -50107,7 +50082,7 @@
     </row>
     <row customFormat="1" r="45" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>3291</v>
+        <v>3282</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>2412</v>
@@ -50121,7 +50096,7 @@
     </row>
     <row customFormat="1" r="46" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>41</v>
@@ -50140,62 +50115,62 @@
     <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:XFD17">
-    <cfRule dxfId="153" priority="12" type="expression">
+    <cfRule dxfId="155" priority="12" type="expression">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD24 B26:XFD31 A38 D19:XFD19 C38:XFD46">
-    <cfRule dxfId="152" priority="11" type="expression">
+    <cfRule dxfId="154" priority="11" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:XFD22">
-    <cfRule dxfId="151" priority="10" type="expression">
+    <cfRule dxfId="153" priority="10" type="expression">
       <formula>OR(B$21="E-KTP",B$21="AKTA",B$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:XFD46">
-    <cfRule dxfId="150" priority="9" type="expression">
+    <cfRule dxfId="152" priority="9" type="expression">
       <formula>C$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule dxfId="149" priority="8" type="expression">
+    <cfRule dxfId="151" priority="8" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24 A26:A31">
-    <cfRule dxfId="148" priority="7" type="expression">
+    <cfRule dxfId="150" priority="7" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="147" priority="6" type="expression">
+    <cfRule dxfId="149" priority="6" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A46">
-    <cfRule dxfId="146" priority="5" type="expression">
+    <cfRule dxfId="148" priority="5" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A46">
-    <cfRule dxfId="145" priority="4" type="expression">
+    <cfRule dxfId="147" priority="4" type="expression">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule dxfId="144" priority="3" type="expression">
+    <cfRule dxfId="146" priority="3" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B46">
-    <cfRule dxfId="143" priority="2" type="expression">
+    <cfRule dxfId="145" priority="2" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B46">
-    <cfRule dxfId="142" priority="1" type="expression">
+    <cfRule dxfId="144" priority="1" type="expression">
       <formula>B$46="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50341,7 +50316,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="C12" pane="topRight" sqref="B12:C12"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50357,7 +50332,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3600</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -50377,7 +50352,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -50400,12 +50375,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="106">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
@@ -50434,12 +50409,12 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="33" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -50463,7 +50438,10 @@
       <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="52" t="str">
+        <f>'1.TabCustomerMainData'!B13</f>
+        <v>0002APP20221206294</v>
+      </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
     </row>
@@ -50472,13 +50450,13 @@
         <v>2410</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>3451</v>
+        <v>2411</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>2411</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3451</v>
+        <v>3440</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>2411</v>
@@ -50487,42 +50465,42 @@
         <v>2411</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="167" t="s">
+    <row customFormat="1" r="14" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="166" t="s">
         <v>3012</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>3271</v>
+        <v>3262</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3598</v>
+        <v>3584</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="2" t="s">
-        <v>3521</v>
+        <v>3510</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
     <row customFormat="1" r="16" s="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>3272</v>
+        <v>3263</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>3597</v>
+        <v>3583</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>3520</v>
+        <v>3509</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>49</v>
@@ -50542,47 +50520,47 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>3306</v>
+        <v>3297</v>
       </c>
       <c r="B18" t="s">
-        <v>3564</v>
+        <v>3583</v>
       </c>
       <c r="C18" t="s">
-        <v>3597</v>
+        <v>3583</v>
       </c>
       <c r="D18" t="s">
-        <v>3568</v>
+        <v>3554</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>3309</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3450</v>
+        <v>3300</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3625</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>3604</v>
+        <v>3588</v>
       </c>
       <c r="D19" t="s">
-        <v>3569</v>
+        <v>3555</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3310</v>
+        <v>3301</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>185</v>
@@ -50602,7 +50580,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
-        <v>3279</v>
+        <v>3270</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>51</v>
@@ -50620,8 +50598,8 @@
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+    <row customFormat="1" r="22" s="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="166" t="s">
         <v>3009</v>
       </c>
     </row>
@@ -50644,7 +50622,7 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
-        <v>3285</v>
+        <v>3276</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>3066</v>
@@ -50658,7 +50636,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
@@ -50674,7 +50652,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
@@ -50690,7 +50668,7 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>3288</v>
+        <v>3279</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -50698,15 +50676,15 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>3214</v>
+        <v>3206</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>3215</v>
+        <v>3207</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>52</v>
@@ -50720,7 +50698,7 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>52</v>
@@ -50734,7 +50712,7 @@
     </row>
     <row customFormat="1" r="30" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
-        <v>3291</v>
+        <v>3282</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>2412</v>
@@ -50748,7 +50726,7 @@
     </row>
     <row customFormat="1" r="31" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>40</v>
@@ -50766,37 +50744,37 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:XFD16">
-    <cfRule dxfId="141" priority="7" type="expression">
+    <cfRule dxfId="143" priority="7" type="expression">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:XFD19 B21:XFD21 A23:XFD23 B24:XFD31">
-    <cfRule dxfId="140" priority="6" type="expression">
+  <conditionalFormatting sqref="B21:XFD21 A23:XFD23 B24:XFD31 B18:XFD19">
+    <cfRule dxfId="142" priority="6" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:XFD31">
-    <cfRule dxfId="139" priority="5" type="expression">
+    <cfRule dxfId="141" priority="5" type="expression">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule dxfId="138" priority="4" type="expression">
+    <cfRule dxfId="140" priority="4" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21 A18:A19">
-    <cfRule dxfId="137" priority="3" type="expression">
+    <cfRule dxfId="139" priority="3" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule dxfId="136" priority="2" type="expression">
+    <cfRule dxfId="138" priority="2" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule dxfId="135" priority="1" type="expression">
+    <cfRule dxfId="137" priority="1" type="expression">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50878,7 +50856,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="C1" pane="topRight" sqref="B1:C2"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50893,8 +50871,8 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3600</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -50914,7 +50892,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -50937,12 +50915,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="106">
         <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
@@ -50960,12 +50938,12 @@
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3644</v>
-      </c>
-      <c r="B10" s="163">
+        <v>3621</v>
+      </c>
+      <c r="B10" s="162">
         <v>1</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="162">
         <v>1</v>
       </c>
     </row>
@@ -50974,7 +50952,7 @@
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>3359</v>
+        <v>3350</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -50987,101 +50965,101 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="83" t="s">
-        <v>3272</v>
-      </c>
-      <c r="B13" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B13" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>3633</v>
+        <v>3610</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
-        <v>3360</v>
+        <v>3351</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>3430</v>
+        <v>3421</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="160" t="s">
-        <v>3431</v>
-      </c>
-      <c r="B15" s="162" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="159" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B15" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="161" t="s">
         <v>37</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="83" t="s">
-        <v>3361</v>
+        <v>3352</v>
       </c>
       <c r="B16" t="s">
-        <v>3582</v>
+        <v>3568</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>3600</v>
+        <v>3586</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
-        <v>3362</v>
+        <v>3353</v>
       </c>
       <c r="B17" s="84" t="s">
         <v>3145</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="160" t="s">
-        <v>3431</v>
-      </c>
-      <c r="B18" s="162" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" s="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="159" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B18" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="161" t="s">
         <v>37</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
-        <v>3363</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3603</v>
+        <v>3354</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>3583</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>3599</v>
+        <v>3585</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>3364</v>
+        <v>3355</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>3601</v>
+        <v>3421</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row customFormat="1" r="21" s="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="160" t="s">
-        <v>3431</v>
-      </c>
-      <c r="B21" s="161" t="s">
-        <v>3602</v>
-      </c>
-      <c r="C21" s="161" t="s">
-        <v>3605</v>
+        <v>3421</v>
+      </c>
+    </row>
+    <row customFormat="1" r="21" s="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="159" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B21" s="160" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C21" s="160" t="s">
+        <v>3589</v>
       </c>
     </row>
     <row ht="33" r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -51093,7 +51071,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <conditionalFormatting sqref="B19">
+    <cfRule dxfId="136" priority="1" type="expression">
+      <formula>B$13="Input Data"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
     <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:C14" type="list">
       <formula1>"New, Select SimilarData, Select ApplicationInProcess"</formula1>
     </dataValidation>
@@ -51101,6 +51084,10 @@
     <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:C15" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B19" type="custom">
+      <formula1>B$13="LookUp"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B1:B2"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -51115,7 +51102,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="D12" pane="topRight" sqref="B12:D12"/>
+      <selection activeCell="C1" pane="topRight" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51133,22 +51120,22 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>3618</v>
-      </c>
       <c r="F1" t="s">
-        <v>3618</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>3618</v>
+        <v>3600</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>7</v>
@@ -51162,7 +51149,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
+        <v>3202</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3046</v>
@@ -51194,12 +51181,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A13:$A17,"*$*",B13:B17,"")</f>
@@ -51232,12 +51219,12 @@
     <row customFormat="1" r="8" s="18" spans="1:10" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
@@ -51273,7 +51260,10 @@
       <c r="A12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="18" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20221206294</v>
+      </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52" t="str">
@@ -51294,16 +51284,16 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>3311</v>
+        <v>3302</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>2407</v>
+        <v>53</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3522</v>
+        <v>3511</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>2407</v>
@@ -51312,7 +51302,7 @@
         <v>53</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>3522</v>
+        <v>3511</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>2407</v>
@@ -51326,34 +51316,34 @@
     </row>
     <row customFormat="1" r="14" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>3312</v>
+        <v>3303</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3436</v>
+        <v>3554</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3523</v>
+        <v>3512</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>3525</v>
+        <v>3514</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>3436</v>
+        <v>3426</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>3523</v>
+        <v>3512</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>3525</v>
+        <v>3514</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>3190</v>
+        <v>3182</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>3190</v>
+        <v>3182</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>3190</v>
+        <v>3182</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -51363,7 +51353,7 @@
     </row>
     <row customFormat="1" r="16" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>3313</v>
+        <v>3304</v>
       </c>
       <c r="B16" s="18">
         <v>1</v>
@@ -51395,13 +51385,13 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3314</v>
+        <v>3305</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>2408</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>3524</v>
+        <v>3513</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>2408</v>
@@ -51410,7 +51400,7 @@
         <v>2408</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>3524</v>
+        <v>3513</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>2408</v>
@@ -51427,9 +51417,11 @@
     </row>
     <row customFormat="1" r="18" s="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>3630</v>
-      </c>
-      <c r="B18" s="12"/>
+        <v>3608</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -51443,16 +51435,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:B18 D18:XFD18">
-    <cfRule dxfId="134" priority="2" type="expression">
+    <cfRule dxfId="135" priority="2" type="expression">
       <formula>AND(A$13&lt;&gt;"Customer",A$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule dxfId="133" priority="1" type="expression">
+    <cfRule dxfId="134" priority="1" type="expression">
       <formula>AND(C$13&lt;&gt;"Customer",C$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B16:J16" type="custom">
       <formula1>ISNUMBER(B16)</formula1>
     </dataValidation>
@@ -51471,6 +51463,7 @@
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:G18" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B1:B2"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -51483,10 +51476,10 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection activeCell="B21" pane="topRight" sqref="B21"/>
+      <selection activeCell="C1" pane="topRight" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51502,10 +51495,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3647</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -51522,13 +51515,13 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3046</v>
       </c>
-      <c r="C2" t="s">
-        <v>3651</v>
+      <c r="C2" s="18" t="s">
+        <v>3046</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3046</v>
@@ -51545,12 +51538,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3211</v>
+        <v>3203</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="B4" s="18">
         <f>IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A61,"*$*",B12:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A50,"*$*",B12:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A50,"*$*",B27:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A61,"*$*",B27:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,"")))))))))</f>
@@ -51579,12 +51572,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
@@ -51593,20 +51586,20 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="167" t="s">
+    <row customFormat="1" r="11" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="166" t="s">
         <v>3013</v>
       </c>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>3315</v>
+        <v>3306</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3488</v>
+        <v>3477</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3488</v>
+        <v>3477</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -51614,36 +51607,36 @@
         <v>55</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>3412</v>
+        <v>3403</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3412</v>
+        <v>3403</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>3316</v>
+        <v>3307</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3411</v>
+        <v>3402</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3411</v>
+        <v>3402</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>3414</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="167" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="166" t="s">
         <v>3014</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3317</v>
+        <v>3308</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>261</v>
@@ -51665,7 +51658,7 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3318</v>
+        <v>3309</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>64</v>
@@ -51676,7 +51669,7 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="B20" s="18">
         <v>12</v>
@@ -51706,7 +51699,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>3320</v>
+        <v>3311</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>64</v>
@@ -51717,7 +51710,7 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>3321</v>
+        <v>3312</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>191</v>
@@ -51728,7 +51721,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>3322</v>
+        <v>3313</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>219</v>
@@ -51739,7 +51732,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>3323</v>
+        <v>3314</v>
       </c>
       <c r="B26" s="18">
         <v>1</v>
@@ -51750,7 +51743,7 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>3324</v>
+        <v>3315</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>244</v>
@@ -51767,8 +51760,8 @@
         <v>68</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="167" t="s">
+    <row customFormat="1" r="29" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="166" t="s">
         <v>3015</v>
       </c>
     </row>
@@ -51782,18 +51775,18 @@
     </row>
     <row customFormat="1" r="31" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>3285</v>
+        <v>3276</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>3439</v>
+        <v>3429</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>3216</v>
+        <v>3208</v>
       </c>
     </row>
     <row customFormat="1" r="32" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -51804,7 +51797,7 @@
     </row>
     <row customFormat="1" r="33" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -51815,7 +51808,7 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>3288</v>
+        <v>3279</v>
       </c>
       <c r="B34" s="18">
         <v>11530</v>
@@ -51826,10 +51819,10 @@
     </row>
     <row customFormat="1" r="35" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>3205</v>
+        <v>3197</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>3068</v>
@@ -51837,10 +51830,10 @@
     </row>
     <row customFormat="1" r="36" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>3205</v>
+        <v>3197</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>3069</v>
@@ -51848,10 +51841,10 @@
     </row>
     <row customFormat="1" r="37" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
-        <v>3325</v>
+        <v>3316</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>3206</v>
+        <v>3198</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>3137</v>
@@ -51918,14 +51911,14 @@
         <v>81</v>
       </c>
     </row>
-    <row customFormat="1" r="49" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="167" t="s">
+    <row customFormat="1" r="49" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="166" t="s">
         <v>3016</v>
       </c>
     </row>
     <row customFormat="1" r="50" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
-        <v>3326</v>
+        <v>3317</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>82</v>
@@ -51944,7 +51937,7 @@
     </row>
     <row customFormat="1" r="52" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
-        <v>3327</v>
+        <v>3318</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>222</v>
@@ -51968,7 +51961,7 @@
     </row>
     <row customFormat="1" r="54" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>3328</v>
+        <v>3319</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>2288</v>
@@ -51977,14 +51970,14 @@
         <v>2291</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="55" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="167" t="s">
+    <row customFormat="1" customHeight="1" ht="13.5" r="55" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="166" t="s">
         <v>3017</v>
       </c>
     </row>
     <row customFormat="1" r="56" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
-        <v>3329</v>
+        <v>3320</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>117</v>
@@ -52009,7 +52002,7 @@
         <v>89</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>3443</v>
+        <v>3433</v>
       </c>
       <c r="C58" s="34"/>
     </row>
@@ -52028,7 +52021,7 @@
     </row>
     <row customFormat="1" r="60" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>3330</v>
+        <v>3321</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>91</v>
@@ -52039,7 +52032,7 @@
     </row>
     <row customFormat="1" r="61" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="B61" s="18">
         <v>1</v>
@@ -52048,33 +52041,33 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="62" s="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="167" t="s">
-        <v>3490</v>
+    <row customFormat="1" customHeight="1" ht="14.25" r="62" s="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="166" t="s">
+        <v>3479</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>3492</v>
+        <v>3481</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>3495</v>
+        <v>3484</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>3491</v>
+        <v>3480</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>3494</v>
+        <v>3483</v>
       </c>
     </row>
     <row customFormat="1" r="65" s="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>3493</v>
+        <v>3482</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>3496</v>
+        <v>3485</v>
       </c>
     </row>
   </sheetData>
@@ -52087,47 +52080,47 @@
     <mergeCell ref="A55:XFD55"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule dxfId="132" priority="10" type="expression">
+    <cfRule dxfId="133" priority="10" type="expression">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule dxfId="131" priority="9" type="expression">
+    <cfRule dxfId="132" priority="9" type="expression">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:XFD37 B31:C34 B37:C37">
-    <cfRule dxfId="130" priority="8" type="expression">
+    <cfRule dxfId="131" priority="8" type="expression">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule dxfId="129" priority="7" type="expression">
+    <cfRule dxfId="130" priority="7" type="expression">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C36">
-    <cfRule dxfId="128" priority="5" type="expression">
+    <cfRule dxfId="129" priority="5" type="expression">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule dxfId="127" priority="4" type="expression">
+    <cfRule dxfId="128" priority="4" type="expression">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule dxfId="126" priority="3" type="expression">
+    <cfRule dxfId="127" priority="3" type="expression">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule dxfId="125" priority="2" type="expression">
+    <cfRule dxfId="126" priority="2" type="expression">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule dxfId="124" priority="1" type="expression">
+    <cfRule dxfId="125" priority="1" type="expression">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
+++ b/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="9" firstSheet="5" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -14192,8 +14192,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1 = Run Dupcheck
-0 = Skip Dupcheck</t>
+1 = DupCheck Output Yes
+0 = DupCheck Output No</t>
         </r>
       </text>
     </comment>
@@ -15634,7 +15634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4955" uniqueCount="3646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="3642">
   <si>
     <t>Count</t>
   </si>
@@ -26506,9 +26506,6 @@
     <t>Jakarta Barat</t>
   </si>
   <si>
-    <t>Run DupCheck</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -26551,34 +26548,25 @@
     <t/>
   </si>
   <si>
-    <t>10.176474</t>
-  </si>
-  <si>
     <t>0002APP20221206341</t>
   </si>
   <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>-;Failed Verify Match / Equal</t>
+  </si>
+  <si>
+    <t>-;Failed Delete[SUBSIDY RATE];Failed Delete[SUBSIDY RATE]</t>
+  </si>
+  <si>
+    <t>10.330608</t>
+  </si>
+  <si>
+    <t>Dupcheck Output</t>
+  </si>
+  <si>
     <t>0002APP20221206344</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>-;Failed Delete[SUBSIDY RATE]</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>-;Failed Verify Match / Equal</t>
-  </si>
-  <si>
-    <t>0002APP20221206346</t>
-  </si>
-  <si>
-    <t>-;Failed Delete[SUBSIDY RATE];Failed Delete[SUBSIDY RATE]</t>
-  </si>
-  <si>
-    <t>10.330608</t>
   </si>
 </sst>
 </file>
@@ -29802,7 +29790,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>37</v>
@@ -29832,10 +29820,10 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="C1" pane="topRight" sqref="B1:C2"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29919,11 +29907,11 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206341</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -30268,7 +30256,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>46</v>
@@ -30737,7 +30725,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection activeCell="C1" pane="topRight" sqref="C1:C2"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30850,7 +30838,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206294</v>
+        <v>0002APP20221206344</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -31105,7 +31093,7 @@
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B17:H17" type="custom">
       <formula1>ISNUMBER(B17)</formula1>
     </dataValidation>
@@ -31121,7 +31109,6 @@
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>"Yes, No, Edit"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B1:B2"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -31220,7 +31207,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -31929,8 +31916,8 @@
       <c r="A85" s="18" t="s">
         <v>3408</v>
       </c>
-      <c r="B85" t="n">
-        <v>0.0</v>
+      <c r="B85">
+        <v>0</v>
       </c>
       <c r="C85">
         <v>21871000</v>
@@ -31941,7 +31928,7 @@
         <v>3456</v>
       </c>
       <c r="B86" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="C86" s="102"/>
     </row>
@@ -32286,7 +32273,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -32408,7 +32395,7 @@
         <v>3384</v>
       </c>
       <c r="B21" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="C21" t="s">
         <v>3598</v>
@@ -32576,7 +32563,7 @@
         <v>3202</v>
       </c>
       <c r="B2" t="s">
-        <v>3644</v>
+        <v>3638</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>3046</v>
@@ -32621,7 +32608,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -32658,7 +32645,7 @@
         <v>3386</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>3544</v>
@@ -32669,7 +32656,7 @@
         <v>3387</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>3545</v>
@@ -32680,7 +32667,7 @@
         <v>3388</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>3546</v>
@@ -32691,7 +32678,7 @@
         <v>3389</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>3547</v>
@@ -32702,7 +32689,7 @@
         <v>3390</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>3548</v>
@@ -32713,7 +32700,7 @@
         <v>3391</v>
       </c>
       <c r="B17" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C17" s="139" t="s">
         <v>3597</v>
@@ -32724,7 +32711,7 @@
         <v>3392</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>3549</v>
@@ -32754,8 +32741,8 @@
       <c r="A21" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B21" t="n">
-        <v>150000.0</v>
+      <c r="B21">
+        <v>150000</v>
       </c>
       <c r="C21" s="139">
         <v>150000</v>
@@ -33006,7 +32993,7 @@
         <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>3645</v>
+        <v>3639</v>
       </c>
       <c r="C44" s="146">
         <v>14.685191</v>
@@ -33100,8 +33087,8 @@
       <c r="A53" s="13" t="s">
         <v>3466</v>
       </c>
-      <c r="B53" t="n">
-        <v>15000.0</v>
+      <c r="B53">
+        <v>15000</v>
       </c>
       <c r="C53" s="145">
         <v>15000</v>
@@ -33251,8 +33238,8 @@
       <c r="A66" s="13" t="s">
         <v>3469</v>
       </c>
-      <c r="B66" t="n">
-        <v>2.283381875E8</v>
+      <c r="B66">
+        <v>228338187.5</v>
       </c>
       <c r="C66" s="139">
         <v>158750241</v>
@@ -33262,8 +33249,8 @@
       <c r="A67" s="13" t="s">
         <v>3470</v>
       </c>
-      <c r="B67" t="n">
-        <v>8.3131E8</v>
+      <c r="B67">
+        <v>831310000</v>
       </c>
       <c r="C67" s="139">
         <v>533791104</v>
@@ -33273,8 +33260,8 @@
       <c r="A68" s="13" t="s">
         <v>3471</v>
       </c>
-      <c r="B68" t="n">
-        <v>9.89E7</v>
+      <c r="B68">
+        <v>98900000</v>
       </c>
       <c r="C68" s="139">
         <v>13547000</v>
@@ -33284,8 +33271,8 @@
       <c r="A69" s="13" t="s">
         <v>3472</v>
       </c>
-      <c r="B69" t="n">
-        <v>5.878999802E7</v>
+      <c r="B69">
+        <v>58789998.020000003</v>
       </c>
       <c r="C69" s="139">
         <v>238387887.74000001</v>
@@ -33295,8 +33282,8 @@
       <c r="A70" s="13" t="s">
         <v>3473</v>
       </c>
-      <c r="B70" t="n">
-        <v>8.9009999802E8</v>
+      <c r="B70">
+        <v>890099998.01999998</v>
       </c>
       <c r="C70" s="139">
         <v>772178991.74000001</v>
@@ -33306,8 +33293,8 @@
       <c r="A71" s="157" t="s">
         <v>3474</v>
       </c>
-      <c r="B71" t="n">
-        <v>15.56148508</v>
+      <c r="B71">
+        <v>15.561485080000001</v>
       </c>
       <c r="C71" s="158">
         <v>15.67253681</v>
@@ -33653,7 +33640,7 @@
         <v>3202</v>
       </c>
       <c r="B2" t="s">
-        <v>3642</v>
+        <v>3637</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3046</v>
@@ -33708,7 +33695,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -33852,7 +33839,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>3641</v>
+        <v>3636</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -33875,7 +33862,7 @@
         <v>3046</v>
       </c>
       <c r="C2" t="s">
-        <v>3642</v>
+        <v>3637</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3046</v>
@@ -33937,7 +33924,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -34121,7 +34108,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -35014,7 +35001,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -35064,8 +35051,8 @@
       <c r="A13" s="69" t="s">
         <v>3415</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.0</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" s="43">
         <v>0</v>
@@ -35081,8 +35068,8 @@
       <c r="A14" s="69" t="s">
         <v>3416</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.0</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" s="43">
         <v>0</v>
@@ -35367,7 +35354,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -35382,7 +35369,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>3199</v>
@@ -35447,10 +35434,10 @@
         <v>3401</v>
       </c>
       <c r="B17" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="C17" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>3201</v>
@@ -35510,10 +35497,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="B13" pane="topRight" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35645,10 +35632,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="C13" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -47533,7 +47520,7 @@
       </c>
       <c r="B12" s="52" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20221206294</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C12" s="52" t="str">
         <f>'1.TabCustomerMainData'!C13</f>
@@ -49418,7 +49405,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -50440,7 +50427,7 @@
       </c>
       <c r="B12" s="52" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20221206294</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -50543,7 +50530,7 @@
         <v>3300</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3588</v>
@@ -50856,7 +50843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="A10" pane="topRight" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50938,7 +50925,7 @@
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3621</v>
+        <v>3640</v>
       </c>
       <c r="B10" s="162">
         <v>1</v>
@@ -50956,7 +50943,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -51262,7 +51249,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206294</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -51563,7 +51550,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206138</v>
+        <v>0002APP20221206344</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>

--- a/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
+++ b/Excel/CF4W/2.1 DataFile_NAP_CF4W.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -29705,7 +29705,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -35500,7 +35500,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35513,8 +35513,8 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3600</v>
+      <c r="B1" s="139" t="s">
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -36164,7 +36164,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DQ492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B43"/>
     </sheetView>
